--- a/temp.xlsx
+++ b/temp.xlsx
@@ -1373,78 +1373,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1497,6 +1425,78 @@
     <xf numFmtId="2" fontId="9" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="9" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="9" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1670,11 +1670,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="182253824"/>
-        <c:axId val="182849920"/>
+        <c:axId val="202639616"/>
+        <c:axId val="202645888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="182253824"/>
+        <c:axId val="202639616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1702,7 +1702,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182849920"/>
+        <c:crossAx val="202645888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1710,7 +1710,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182849920"/>
+        <c:axId val="202645888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1752,7 +1752,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182253824"/>
+        <c:crossAx val="202639616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1839,7 +1839,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1992,11 +1991,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="183786112"/>
-        <c:axId val="183800576"/>
+        <c:axId val="203573888"/>
+        <c:axId val="203596544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="183786112"/>
+        <c:axId val="203573888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2019,13 +2018,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183800576"/>
+        <c:crossAx val="203596544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2033,7 +2031,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183800576"/>
+        <c:axId val="203596544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2060,14 +2058,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183786112"/>
+        <c:crossAx val="203573888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2103,7 +2100,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2159,7 +2155,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2312,11 +2307,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="183895936"/>
-        <c:axId val="183910400"/>
+        <c:axId val="203757440"/>
+        <c:axId val="203771904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="183895936"/>
+        <c:axId val="203757440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2339,13 +2334,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183910400"/>
+        <c:crossAx val="203771904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2353,7 +2347,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183910400"/>
+        <c:axId val="203771904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2380,14 +2374,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183895936"/>
+        <c:crossAx val="203757440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2423,7 +2416,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2596,13 +2588,13 @@
                   <c:v>292</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>241.20000000000002</c:v>
+                  <c:v>247.00000000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>235.20000000000002</c:v>
+                  <c:v>238</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>298.79999999999995</c:v>
+                  <c:v>297</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2626,11 +2618,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="183936128"/>
-        <c:axId val="183938048"/>
+        <c:axId val="203797632"/>
+        <c:axId val="203799552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="183936128"/>
+        <c:axId val="203797632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2660,7 +2652,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183938048"/>
+        <c:crossAx val="203799552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2668,7 +2660,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183938048"/>
+        <c:axId val="203799552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2710,7 +2702,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183936128"/>
+        <c:crossAx val="203797632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2854,8 +2846,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.7299707602339184E-3"/>
-                  <c:y val="-1.2528055555555556E-2"/>
+                  <c:x val="-1.105219298245614E-2"/>
+                  <c:y val="-2.8403055555555556E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2870,8 +2862,136 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.0123830409356726E-2"/>
+                  <c:x val="8.8157894736842101E-5"/>
                   <c:y val="-2.1347499999999998E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.9786549707602343E-3"/>
+                  <c:y val="-2.8403055555555556E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.3049707602339183E-3"/>
+                  <c:y val="-1.0764166666666667E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.265204678362573E-3"/>
+                  <c:y val="-9.0002777777777772E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.265204678362573E-3"/>
+                  <c:y val="-1.0764166666666667E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.1219298245614034E-3"/>
+                  <c:y val="-1.9583611111111111E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.7637426900584788E-3"/>
+                  <c:y val="-1.9583611111111111E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.7119005847953218E-2"/>
+                  <c:y val="-1.9583611111111111E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.7119005847953218E-2"/>
+                  <c:y val="-1.9583611111111111E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2995,13 +3115,13 @@
                   <c:v>43.045000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>72.519600000000011</c:v>
+                  <c:v>70.205500000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>91.455399999999997</c:v>
+                  <c:v>89.987166666666667</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>113.98099999999999</c:v>
+                  <c:v>113.74083333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3112,13 +3232,13 @@
                   <c:v>97.530666666666676</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>208.9042</c:v>
+                  <c:v>201.85599999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>252.69759999999999</c:v>
+                  <c:v>248.31133333333335</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>357.14320000000004</c:v>
+                  <c:v>344.70316666666668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3243,13 +3363,13 @@
                   <c:v>299.90216666666669</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>629.56500000000005</c:v>
+                  <c:v>622.93299999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>739.89480000000003</c:v>
+                  <c:v>751.06100000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1181.0036</c:v>
+                  <c:v>1208.684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3273,11 +3393,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="183998336"/>
-        <c:axId val="184004608"/>
+        <c:axId val="203724672"/>
+        <c:axId val="203726848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="183998336"/>
+        <c:axId val="203724672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3306,7 +3426,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184004608"/>
+        <c:crossAx val="203726848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3314,7 +3434,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="184004608"/>
+        <c:axId val="203726848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3353,7 +3473,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183998336"/>
+        <c:crossAx val="203724672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3560,9 +3680,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$E$33:$F$43</c:f>
+              <c:f>Sheet3!$E$33:$F$46</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3595,16 +3715,25 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>800</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$P$33:$P$43</c:f>
+              <c:f>Sheet3!$P$33:$P$46</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1.0791666666666668</c:v>
                 </c:pt>
@@ -3637,6 +3766,15 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>97.530666666666676</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>201.85599999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>248.31133333333335</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>344.70316666666668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3697,9 +3835,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$E$33:$F$43</c:f>
+              <c:f>Sheet3!$E$33:$F$46</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3732,16 +3870,25 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>800</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$R$33:$R$43</c:f>
+              <c:f>Sheet3!$R$33:$R$46</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1.8493333333333333</c:v>
                 </c:pt>
@@ -3774,6 +3921,15 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>299.90216666666669</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>622.93299999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>751.06100000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1208.684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3797,11 +3953,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="184047872"/>
-        <c:axId val="184058240"/>
+        <c:axId val="203835648"/>
+        <c:axId val="203846016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="184047872"/>
+        <c:axId val="203835648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3830,7 +3986,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184058240"/>
+        <c:crossAx val="203846016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3838,7 +3994,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="184058240"/>
+        <c:axId val="203846016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3875,7 +4031,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184047872"/>
+        <c:crossAx val="203835648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3991,9 +4147,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$E$33:$F$43</c:f>
+              <c:f>Sheet3!$E$33:$F$46</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4026,16 +4182,25 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>800</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$S$33:$S$43</c:f>
+              <c:f>Sheet3!$S$33:$S$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>4.8</c:v>
                 </c:pt>
@@ -4068,6 +4233,15 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4091,11 +4265,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="184092160"/>
-        <c:axId val="184094080"/>
+        <c:axId val="203884032"/>
+        <c:axId val="203885952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="184092160"/>
+        <c:axId val="203884032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4124,7 +4298,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184094080"/>
+        <c:crossAx val="203885952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4132,7 +4306,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="184094080"/>
+        <c:axId val="203885952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4174,7 +4348,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184092160"/>
+        <c:crossAx val="203884032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4296,9 +4470,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$E$33:$F$43</c:f>
+              <c:f>Sheet3!$E$33:$F$46</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4331,16 +4505,25 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>800</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$T$33:$T$43</c:f>
+              <c:f>Sheet3!$T$33:$T$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>353</c:v>
                 </c:pt>
@@ -4373,6 +4556,15 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1117</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1209</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1226</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1287</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4396,11 +4588,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="184124160"/>
-        <c:axId val="184126080"/>
+        <c:axId val="203916032"/>
+        <c:axId val="203917952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="184124160"/>
+        <c:axId val="203916032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4429,7 +4621,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184126080"/>
+        <c:crossAx val="203917952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4437,7 +4629,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="184126080"/>
+        <c:axId val="203917952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4471,7 +4663,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184124160"/>
+        <c:crossAx val="203916032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4598,9 +4790,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$E$33:$F$43</c:f>
+              <c:f>Sheet3!$E$33:$F$46</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4633,16 +4825,25 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>800</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$U$33:$U$43</c:f>
+              <c:f>Sheet3!$U$33:$U$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>51</c:v>
                 </c:pt>
@@ -4675,6 +4876,15 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>446</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4698,11 +4908,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="184233984"/>
-        <c:axId val="184235904"/>
+        <c:axId val="203112448"/>
+        <c:axId val="203114368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="184233984"/>
+        <c:axId val="203112448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4731,7 +4941,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184235904"/>
+        <c:crossAx val="203114368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4739,7 +4949,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="184235904"/>
+        <c:axId val="203114368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4773,7 +4983,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184233984"/>
+        <c:crossAx val="203112448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4937,6 +5147,22 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.528605594640367E-2"/>
+                  <c:y val="1.7458055555555522E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -5132,6 +5358,22 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.444175753677601E-2"/>
+                  <c:y val="-2.804138888888889E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -5207,10 +5449,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$G$290:$G$300</c:f>
+              <c:f>Sheet3!$G$290:$G$303</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>9.3833333333333329</c:v>
                 </c:pt>
@@ -5243,6 +5485,15 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>247.00000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>297</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5266,11 +5517,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="184279424"/>
-        <c:axId val="184281344"/>
+        <c:axId val="203170176"/>
+        <c:axId val="203172096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="184279424"/>
+        <c:axId val="203170176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5300,7 +5551,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184281344"/>
+        <c:crossAx val="203172096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5308,7 +5559,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="184281344"/>
+        <c:axId val="203172096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5350,7 +5601,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184279424"/>
+        <c:crossAx val="203170176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6008,10 +6259,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$I$290:$I$300</c:f>
+              <c:f>Sheet3!$I$290:$I$303</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0.64349999999999996</c:v>
                 </c:pt>
@@ -6044,6 +6295,15 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>43.045000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70.205500000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>89.987166666666667</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>113.74083333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6067,11 +6327,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="184337152"/>
-        <c:axId val="184339072"/>
+        <c:axId val="203219712"/>
+        <c:axId val="203221632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="184337152"/>
+        <c:axId val="203219712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6100,7 +6360,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184339072"/>
+        <c:crossAx val="203221632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6108,7 +6368,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="184339072"/>
+        <c:axId val="203221632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6147,7 +6407,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184337152"/>
+        <c:crossAx val="203219712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6480,11 +6740,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="182909952"/>
-        <c:axId val="182908416"/>
+        <c:axId val="202701824"/>
+        <c:axId val="202700288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="182909952"/>
+        <c:axId val="202701824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6512,7 +6772,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182908416"/>
+        <c:crossAx val="202700288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6520,7 +6780,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182908416"/>
+        <c:axId val="202700288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6550,7 +6810,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182909952"/>
+        <c:crossAx val="202701824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6788,6 +7048,22 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.0188815789473685E-2"/>
+                  <c:y val="1.4291944444444444E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -6999,6 +7275,22 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.1988304093567256E-4"/>
+                  <c:y val="-5.4724999999999999E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -7074,10 +7366,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$K$290:$K$300</c:f>
+              <c:f>Sheet3!$K$290:$K$303</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1.0791666666666668</c:v>
                 </c:pt>
@@ -7110,6 +7402,15 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>97.530666666666676</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>201.85599999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>248.31133333333335</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>344.70316666666668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7133,11 +7434,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="184394880"/>
-        <c:axId val="184396800"/>
+        <c:axId val="203289728"/>
+        <c:axId val="203291648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="184394880"/>
+        <c:axId val="203289728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7166,7 +7467,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184396800"/>
+        <c:crossAx val="203291648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7174,7 +7475,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="184396800"/>
+        <c:axId val="203291648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7211,7 +7512,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184394880"/>
+        <c:crossAx val="203289728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7656,10 +7957,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$O$290:$O$300</c:f>
+              <c:f>Sheet3!$O$290:$O$303</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1.8493333333333333</c:v>
                 </c:pt>
@@ -7692,6 +7993,15 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>299.90216666666669</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>622.93299999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>751.06100000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1208.684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7715,11 +8025,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="183261056"/>
-        <c:axId val="183267328"/>
+        <c:axId val="204265344"/>
+        <c:axId val="204029952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="183261056"/>
+        <c:axId val="204265344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7748,7 +8058,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183267328"/>
+        <c:crossAx val="204029952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7756,7 +8066,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183267328"/>
+        <c:axId val="204029952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7793,7 +8103,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183261056"/>
+        <c:crossAx val="204265344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8222,10 +8532,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$Q$290:$Q$300</c:f>
+              <c:f>Sheet3!$Q$290:$Q$303</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>4.8</c:v>
                 </c:pt>
@@ -8258,6 +8568,15 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8281,11 +8600,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="183314688"/>
-        <c:axId val="183329152"/>
+        <c:axId val="204077312"/>
+        <c:axId val="204087680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="183314688"/>
+        <c:axId val="204077312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8314,7 +8633,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183329152"/>
+        <c:crossAx val="204087680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8322,7 +8641,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183329152"/>
+        <c:axId val="204087680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8359,7 +8678,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183314688"/>
+        <c:crossAx val="204077312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8772,10 +9091,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$S$290:$S$300</c:f>
+              <c:f>Sheet3!$S$290:$S$303</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>353</c:v>
                 </c:pt>
@@ -8808,6 +9127,15 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1117</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1209</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1226</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1287</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8831,11 +9159,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="183368320"/>
-        <c:axId val="183374592"/>
+        <c:axId val="204114560"/>
+        <c:axId val="204137216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="183368320"/>
+        <c:axId val="204114560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8864,7 +9192,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183374592"/>
+        <c:crossAx val="204137216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8872,7 +9200,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183374592"/>
+        <c:axId val="204137216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8909,7 +9237,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183368320"/>
+        <c:crossAx val="204114560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9215,6 +9543,22 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.4234941520467835E-2"/>
+                  <c:y val="-2.1347499999999998E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -9290,10 +9634,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$U$290:$U$300</c:f>
+              <c:f>Sheet3!$U$290:$U$303</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>51</c:v>
                 </c:pt>
@@ -9326,6 +9670,15 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>446</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9349,11 +9702,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="183401472"/>
-        <c:axId val="183403648"/>
+        <c:axId val="204172288"/>
+        <c:axId val="204174464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="183401472"/>
+        <c:axId val="204172288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9382,7 +9735,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183403648"/>
+        <c:crossAx val="204174464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9390,7 +9743,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183403648"/>
+        <c:axId val="204174464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9427,7 +9780,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183401472"/>
+        <c:crossAx val="204172288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9524,9 +9877,6 @@
             <c:v>Play</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="00B050"/>
-            </a:solidFill>
             <a:ln>
               <a:solidFill>
                 <a:srgbClr val="00B050"/>
@@ -9948,11 +10298,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="195518848"/>
-        <c:axId val="196218240"/>
+        <c:axId val="204209152"/>
+        <c:axId val="204620928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="195518848"/>
+        <c:axId val="204209152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9980,7 +10330,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196218240"/>
+        <c:crossAx val="204620928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9988,7 +10338,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196218240"/>
+        <c:axId val="204620928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10018,7 +10368,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195518848"/>
+        <c:crossAx val="204209152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10183,11 +10533,11 @@
         <c:hiLowLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="182798208"/>
-        <c:axId val="182812672"/>
+        <c:axId val="202590080"/>
+        <c:axId val="202604544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="182798208"/>
+        <c:axId val="202590080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10215,7 +10565,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182812672"/>
+        <c:crossAx val="202604544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10223,7 +10573,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182812672"/>
+        <c:axId val="202604544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10253,7 +10603,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182798208"/>
+        <c:crossAx val="202590080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10409,11 +10759,11 @@
         <c:hiLowLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="182834304"/>
-        <c:axId val="182836224"/>
+        <c:axId val="202623616"/>
+        <c:axId val="202973952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="182834304"/>
+        <c:axId val="202623616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10441,7 +10791,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182836224"/>
+        <c:crossAx val="202973952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10449,7 +10799,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182836224"/>
+        <c:axId val="202973952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10487,7 +10837,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182834304"/>
+        <c:crossAx val="202623616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10643,11 +10993,11 @@
         <c:hiLowLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="183226752"/>
-        <c:axId val="183228672"/>
+        <c:axId val="203011968"/>
+        <c:axId val="203022336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="183226752"/>
+        <c:axId val="203011968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10675,7 +11025,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183228672"/>
+        <c:crossAx val="203022336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10683,7 +11033,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183228672"/>
+        <c:axId val="203022336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10713,7 +11063,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183226752"/>
+        <c:crossAx val="203011968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10959,11 +11309,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="183522816"/>
-        <c:axId val="183524736"/>
+        <c:axId val="203318784"/>
+        <c:axId val="203320704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="183522816"/>
+        <c:axId val="203318784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10993,7 +11343,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183524736"/>
+        <c:crossAx val="203320704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11001,7 +11351,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183524736"/>
+        <c:axId val="203320704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11043,7 +11393,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183522816"/>
+        <c:crossAx val="203318784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11129,7 +11479,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -11702,11 +12051,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="183665408"/>
-        <c:axId val="183667328"/>
+        <c:axId val="203356416"/>
+        <c:axId val="203452800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="183665408"/>
+        <c:axId val="203356416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11729,13 +12078,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183667328"/>
+        <c:crossAx val="203452800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11743,7 +12091,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183667328"/>
+        <c:axId val="203452800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11775,14 +12123,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183665408"/>
+        <c:crossAx val="203356416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11818,7 +12165,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -11876,7 +12222,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -12423,11 +12768,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="183698176"/>
-        <c:axId val="183700096"/>
+        <c:axId val="203491968"/>
+        <c:axId val="203510528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="183698176"/>
+        <c:axId val="203491968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12450,13 +12795,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183700096"/>
+        <c:crossAx val="203510528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12464,7 +12808,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183700096"/>
+        <c:axId val="203510528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12494,14 +12838,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183698176"/>
+        <c:crossAx val="203491968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12537,7 +12880,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -12590,7 +12932,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -12743,11 +13084,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="183733632"/>
-        <c:axId val="183752192"/>
+        <c:axId val="203538432"/>
+        <c:axId val="203540352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="183733632"/>
+        <c:axId val="203538432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12770,13 +13111,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183752192"/>
+        <c:crossAx val="203540352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12784,7 +13124,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183752192"/>
+        <c:axId val="203540352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12819,14 +13159,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183733632"/>
+        <c:crossAx val="203538432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12862,7 +13201,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -13521,14 +13859,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>68</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>307</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>91</xdr:col>
-      <xdr:colOff>211650</xdr:colOff>
+      <xdr:col>92</xdr:col>
+      <xdr:colOff>11625</xdr:colOff>
       <xdr:row>344</xdr:row>
       <xdr:rowOff>170550</xdr:rowOff>
     </xdr:to>
@@ -13553,16 +13891,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>91</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:col>92</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>307</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>113</xdr:col>
-      <xdr:colOff>592650</xdr:colOff>
+      <xdr:col>114</xdr:col>
+      <xdr:colOff>440250</xdr:colOff>
       <xdr:row>344</xdr:row>
-      <xdr:rowOff>151500</xdr:rowOff>
+      <xdr:rowOff>170550</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13586,13 +13924,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>114</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>307</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>136</xdr:col>
-      <xdr:colOff>268800</xdr:colOff>
+      <xdr:col>137</xdr:col>
+      <xdr:colOff>211650</xdr:colOff>
       <xdr:row>344</xdr:row>
       <xdr:rowOff>151500</xdr:rowOff>
     </xdr:to>
@@ -13617,16 +13955,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>136</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:col>137</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>307</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>159</xdr:col>
-      <xdr:colOff>49725</xdr:colOff>
+      <xdr:colOff>525975</xdr:colOff>
       <xdr:row>344</xdr:row>
-      <xdr:rowOff>170550</xdr:rowOff>
+      <xdr:rowOff>161025</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15980,8 +16318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BT303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="A253" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B274" sqref="B274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15999,28 +16337,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="156" t="s">
         <v>214</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="G2" s="115" t="s">
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="G2" s="137" t="s">
         <v>224</v>
       </c>
-      <c r="H2" s="115"/>
+      <c r="H2" s="137"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="156" t="s">
         <v>210</v>
       </c>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
       <c r="G3" s="104" t="s">
         <v>232</v>
       </c>
@@ -16032,12 +16370,12 @@
       <c r="A4" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B4" s="122" t="s">
+      <c r="B4" s="156" t="s">
         <v>211</v>
       </c>
-      <c r="C4" s="122"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
+      <c r="C4" s="156"/>
+      <c r="D4" s="156"/>
+      <c r="E4" s="156"/>
       <c r="G4" s="104" t="s">
         <v>231</v>
       </c>
@@ -16049,12 +16387,12 @@
       <c r="A5" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="B5" s="123" t="s">
+      <c r="B5" s="157" t="s">
         <v>215</v>
       </c>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
+      <c r="C5" s="157"/>
+      <c r="D5" s="157"/>
+      <c r="E5" s="157"/>
       <c r="G5" s="104" t="s">
         <v>226</v>
       </c>
@@ -16066,84 +16404,84 @@
       <c r="A6" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="B6" s="122" t="s">
+      <c r="B6" s="156" t="s">
         <v>213</v>
       </c>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
+      <c r="C6" s="156"/>
+      <c r="D6" s="156"/>
+      <c r="E6" s="156"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="B7" s="122" t="s">
+      <c r="B7" s="156" t="s">
         <v>252</v>
       </c>
-      <c r="C7" s="122"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
+      <c r="C7" s="156"/>
+      <c r="D7" s="156"/>
+      <c r="E7" s="156"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="20"/>
-      <c r="B8" s="136"/>
-      <c r="C8" s="136"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="121" t="s">
+      <c r="A11" s="158" t="s">
         <v>248</v>
       </c>
-      <c r="B11" s="129" t="s">
+      <c r="B11" s="145" t="s">
         <v>246</v>
       </c>
-      <c r="C11" s="129"/>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="129"/>
-      <c r="G11" s="129"/>
-      <c r="H11" s="129"/>
-      <c r="I11" s="129"/>
-      <c r="J11" s="129"/>
-      <c r="K11" s="129"/>
-      <c r="L11" s="129"/>
-      <c r="M11" s="129"/>
-      <c r="N11" s="129"/>
-      <c r="O11" s="129"/>
-      <c r="P11" s="129"/>
-      <c r="Q11" s="129"/>
-      <c r="R11" s="129"/>
-      <c r="S11" s="129"/>
-      <c r="T11" s="129"/>
-      <c r="U11" s="129"/>
-      <c r="V11" s="129"/>
-      <c r="W11" s="129"/>
+      <c r="C11" s="145"/>
+      <c r="D11" s="145"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="145"/>
+      <c r="G11" s="145"/>
+      <c r="H11" s="145"/>
+      <c r="I11" s="145"/>
+      <c r="J11" s="145"/>
+      <c r="K11" s="145"/>
+      <c r="L11" s="145"/>
+      <c r="M11" s="145"/>
+      <c r="N11" s="145"/>
+      <c r="O11" s="145"/>
+      <c r="P11" s="145"/>
+      <c r="Q11" s="145"/>
+      <c r="R11" s="145"/>
+      <c r="S11" s="145"/>
+      <c r="T11" s="145"/>
+      <c r="U11" s="145"/>
+      <c r="V11" s="145"/>
+      <c r="W11" s="145"/>
     </row>
     <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="121"/>
-      <c r="B12" s="129"/>
-      <c r="C12" s="129"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="129"/>
-      <c r="G12" s="129"/>
-      <c r="H12" s="129"/>
-      <c r="I12" s="129"/>
-      <c r="J12" s="129"/>
-      <c r="K12" s="129"/>
-      <c r="L12" s="129"/>
-      <c r="M12" s="129"/>
-      <c r="N12" s="129"/>
-      <c r="O12" s="129"/>
-      <c r="P12" s="129"/>
-      <c r="Q12" s="129"/>
-      <c r="R12" s="129"/>
-      <c r="S12" s="129"/>
-      <c r="T12" s="129"/>
-      <c r="U12" s="129"/>
-      <c r="V12" s="129"/>
-      <c r="W12" s="129"/>
+      <c r="A12" s="158"/>
+      <c r="B12" s="145"/>
+      <c r="C12" s="145"/>
+      <c r="D12" s="145"/>
+      <c r="E12" s="145"/>
+      <c r="F12" s="145"/>
+      <c r="G12" s="145"/>
+      <c r="H12" s="145"/>
+      <c r="I12" s="145"/>
+      <c r="J12" s="145"/>
+      <c r="K12" s="145"/>
+      <c r="L12" s="145"/>
+      <c r="M12" s="145"/>
+      <c r="N12" s="145"/>
+      <c r="O12" s="145"/>
+      <c r="P12" s="145"/>
+      <c r="Q12" s="145"/>
+      <c r="R12" s="145"/>
+      <c r="S12" s="145"/>
+      <c r="T12" s="145"/>
+      <c r="U12" s="145"/>
+      <c r="V12" s="145"/>
+      <c r="W12" s="145"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D14" s="73"/>
@@ -17144,73 +17482,73 @@
       <c r="Q31" s="27"/>
       <c r="R31" s="27"/>
       <c r="U31" s="52"/>
-      <c r="V31" s="119" t="s">
+      <c r="V31" s="136" t="s">
         <v>234</v>
       </c>
-      <c r="W31" s="119"/>
-      <c r="X31" s="119"/>
-      <c r="Y31" s="119"/>
-      <c r="Z31" s="119"/>
-      <c r="AA31" s="119" t="s">
+      <c r="W31" s="136"/>
+      <c r="X31" s="136"/>
+      <c r="Y31" s="136"/>
+      <c r="Z31" s="136"/>
+      <c r="AA31" s="136" t="s">
         <v>235</v>
       </c>
-      <c r="AB31" s="119"/>
-      <c r="AC31" s="119"/>
-      <c r="AD31" s="119"/>
-      <c r="AE31" s="119"/>
-      <c r="AF31" s="119" t="s">
+      <c r="AB31" s="136"/>
+      <c r="AC31" s="136"/>
+      <c r="AD31" s="136"/>
+      <c r="AE31" s="136"/>
+      <c r="AF31" s="136" t="s">
         <v>236</v>
       </c>
-      <c r="AG31" s="119"/>
-      <c r="AH31" s="119"/>
-      <c r="AI31" s="119"/>
-      <c r="AJ31" s="119"/>
-      <c r="AK31" s="119" t="s">
+      <c r="AG31" s="136"/>
+      <c r="AH31" s="136"/>
+      <c r="AI31" s="136"/>
+      <c r="AJ31" s="136"/>
+      <c r="AK31" s="136" t="s">
         <v>237</v>
       </c>
-      <c r="AL31" s="119"/>
-      <c r="AM31" s="119"/>
-      <c r="AN31" s="119"/>
-      <c r="AO31" s="119"/>
-      <c r="AP31" s="119" t="s">
+      <c r="AL31" s="136"/>
+      <c r="AM31" s="136"/>
+      <c r="AN31" s="136"/>
+      <c r="AO31" s="136"/>
+      <c r="AP31" s="136" t="s">
         <v>238</v>
       </c>
-      <c r="AQ31" s="119"/>
-      <c r="AR31" s="119"/>
-      <c r="AS31" s="119"/>
-      <c r="AT31" s="119"/>
-      <c r="AU31" s="119" t="s">
+      <c r="AQ31" s="136"/>
+      <c r="AR31" s="136"/>
+      <c r="AS31" s="136"/>
+      <c r="AT31" s="136"/>
+      <c r="AU31" s="136" t="s">
         <v>239</v>
       </c>
-      <c r="AV31" s="119"/>
-      <c r="AW31" s="119"/>
-      <c r="AX31" s="119"/>
-      <c r="AY31" s="119"/>
+      <c r="AV31" s="136"/>
+      <c r="AW31" s="136"/>
+      <c r="AX31" s="136"/>
+      <c r="AY31" s="136"/>
     </row>
     <row r="32" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="B32" s="115" t="s">
+      <c r="B32" s="137" t="s">
         <v>219</v>
       </c>
-      <c r="C32" s="115"/>
+      <c r="C32" s="137"/>
       <c r="D32" s="96"/>
-      <c r="E32" s="115" t="s">
+      <c r="E32" s="137" t="s">
         <v>228</v>
       </c>
-      <c r="F32" s="115"/>
-      <c r="G32" s="115" t="s">
+      <c r="F32" s="137"/>
+      <c r="G32" s="137" t="s">
         <v>217</v>
       </c>
-      <c r="H32" s="115"/>
-      <c r="I32" s="115"/>
-      <c r="J32" s="115"/>
-      <c r="K32" s="124" t="s">
+      <c r="H32" s="137"/>
+      <c r="I32" s="137"/>
+      <c r="J32" s="137"/>
+      <c r="K32" s="138" t="s">
         <v>227</v>
       </c>
-      <c r="L32" s="125"/>
-      <c r="M32" s="126" t="s">
+      <c r="L32" s="139"/>
+      <c r="M32" s="140" t="s">
         <v>218</v>
       </c>
-      <c r="N32" s="126"/>
+      <c r="N32" s="140"/>
       <c r="O32" s="28" t="s">
         <v>243</v>
       </c>
@@ -17324,32 +17662,32 @@
       </c>
     </row>
     <row r="33" spans="2:72" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="130" t="s">
+      <c r="B33" s="146" t="s">
         <v>220</v>
       </c>
-      <c r="C33" s="131"/>
+      <c r="C33" s="147"/>
       <c r="D33" s="94"/>
-      <c r="E33" s="112">
+      <c r="E33" s="141">
         <v>1</v>
       </c>
-      <c r="F33" s="112"/>
-      <c r="G33" s="112">
+      <c r="F33" s="141"/>
+      <c r="G33" s="141">
         <f>E33*60</f>
         <v>60</v>
       </c>
-      <c r="H33" s="112"/>
-      <c r="I33" s="112"/>
-      <c r="J33" s="112"/>
-      <c r="K33" s="116">
+      <c r="H33" s="141"/>
+      <c r="I33" s="141"/>
+      <c r="J33" s="141"/>
+      <c r="K33" s="142">
         <f>AVERAGE(V33,AA33,AF33,AK33,AP33,AU33)</f>
         <v>0.15638888888888888</v>
       </c>
-      <c r="L33" s="117"/>
-      <c r="M33" s="118">
+      <c r="L33" s="143"/>
+      <c r="M33" s="144">
         <f>K33*60</f>
         <v>9.3833333333333329</v>
       </c>
-      <c r="N33" s="118"/>
+      <c r="N33" s="144"/>
       <c r="O33" s="77">
         <f>AVERAGE(W33,AB33,AG33,AL33,AQ33,AV33)/1000</f>
         <v>0.64349999999999996</v>
@@ -17494,30 +17832,30 @@
       <c r="BT33"/>
     </row>
     <row r="34" spans="2:72" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="132"/>
-      <c r="C34" s="133"/>
+      <c r="B34" s="148"/>
+      <c r="C34" s="149"/>
       <c r="D34" s="94"/>
-      <c r="E34" s="112">
+      <c r="E34" s="141">
         <v>5</v>
       </c>
-      <c r="F34" s="112"/>
-      <c r="G34" s="112">
+      <c r="F34" s="141"/>
+      <c r="G34" s="141">
         <f>E34*60</f>
         <v>300</v>
       </c>
-      <c r="H34" s="112"/>
-      <c r="I34" s="112"/>
-      <c r="J34" s="112"/>
-      <c r="K34" s="116">
+      <c r="H34" s="141"/>
+      <c r="I34" s="141"/>
+      <c r="J34" s="141"/>
+      <c r="K34" s="142">
         <f t="shared" ref="K34:K46" si="3">AVERAGE(V34,AA34,AF34,AK34,AP34,AU34)</f>
         <v>0.63583333333333325</v>
       </c>
-      <c r="L34" s="117"/>
-      <c r="M34" s="118">
+      <c r="L34" s="143"/>
+      <c r="M34" s="144">
         <f t="shared" ref="M34:M46" si="4">K34*60</f>
         <v>38.149999999999991</v>
       </c>
-      <c r="N34" s="118"/>
+      <c r="N34" s="144"/>
       <c r="O34" s="77">
         <f t="shared" ref="O34:O46" si="5">AVERAGE(W34,AB34,AG34,AL34,AQ34,AV34)/1000</f>
         <v>0.85599999999999998</v>
@@ -17662,30 +18000,30 @@
       <c r="BT34"/>
     </row>
     <row r="35" spans="2:72" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="132"/>
-      <c r="C35" s="133"/>
+      <c r="B35" s="148"/>
+      <c r="C35" s="149"/>
       <c r="D35" s="94"/>
-      <c r="E35" s="112">
+      <c r="E35" s="141">
         <v>10</v>
       </c>
-      <c r="F35" s="112"/>
-      <c r="G35" s="112">
+      <c r="F35" s="141"/>
+      <c r="G35" s="141">
         <f t="shared" ref="G35:G46" si="7">E35*60</f>
         <v>600</v>
       </c>
-      <c r="H35" s="112"/>
-      <c r="I35" s="112"/>
-      <c r="J35" s="112"/>
-      <c r="K35" s="116">
+      <c r="H35" s="141"/>
+      <c r="I35" s="141"/>
+      <c r="J35" s="141"/>
+      <c r="K35" s="142">
         <f t="shared" si="3"/>
         <v>1.0786666666666667</v>
       </c>
-      <c r="L35" s="117"/>
-      <c r="M35" s="118">
+      <c r="L35" s="143"/>
+      <c r="M35" s="144">
         <f t="shared" si="4"/>
         <v>64.72</v>
       </c>
-      <c r="N35" s="118"/>
+      <c r="N35" s="144"/>
       <c r="O35" s="77">
         <f t="shared" si="5"/>
         <v>1.1612</v>
@@ -17815,30 +18153,30 @@
       <c r="BT35"/>
     </row>
     <row r="36" spans="2:72" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="132"/>
-      <c r="C36" s="133"/>
+      <c r="B36" s="148"/>
+      <c r="C36" s="149"/>
       <c r="D36" s="94"/>
-      <c r="E36" s="112">
+      <c r="E36" s="141">
         <v>20</v>
       </c>
-      <c r="F36" s="112"/>
-      <c r="G36" s="112">
+      <c r="F36" s="141"/>
+      <c r="G36" s="141">
         <f t="shared" si="7"/>
         <v>1200</v>
       </c>
-      <c r="H36" s="112"/>
-      <c r="I36" s="112"/>
-      <c r="J36" s="112"/>
-      <c r="K36" s="116">
+      <c r="H36" s="141"/>
+      <c r="I36" s="141"/>
+      <c r="J36" s="141"/>
+      <c r="K36" s="142">
         <f t="shared" si="3"/>
         <v>1.9833333333333334</v>
       </c>
-      <c r="L36" s="117"/>
-      <c r="M36" s="118">
+      <c r="L36" s="143"/>
+      <c r="M36" s="144">
         <f t="shared" si="4"/>
         <v>119</v>
       </c>
-      <c r="N36" s="118"/>
+      <c r="N36" s="144"/>
       <c r="O36" s="77">
         <f t="shared" si="5"/>
         <v>1.8898333333333333</v>
@@ -17977,30 +18315,30 @@
       <c r="BT36"/>
     </row>
     <row r="37" spans="2:72" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="132"/>
-      <c r="C37" s="133"/>
+      <c r="B37" s="148"/>
+      <c r="C37" s="149"/>
       <c r="D37" s="94"/>
-      <c r="E37" s="112">
+      <c r="E37" s="141">
         <v>50</v>
       </c>
-      <c r="F37" s="112"/>
-      <c r="G37" s="112">
+      <c r="F37" s="141"/>
+      <c r="G37" s="141">
         <f t="shared" si="7"/>
         <v>3000</v>
       </c>
-      <c r="H37" s="112"/>
-      <c r="I37" s="112"/>
-      <c r="J37" s="112"/>
-      <c r="K37" s="116">
+      <c r="H37" s="141"/>
+      <c r="I37" s="141"/>
+      <c r="J37" s="141"/>
+      <c r="K37" s="142">
         <f t="shared" si="3"/>
         <v>3.1</v>
       </c>
-      <c r="L37" s="117"/>
-      <c r="M37" s="118">
+      <c r="L37" s="143"/>
+      <c r="M37" s="144">
         <f t="shared" si="4"/>
         <v>186</v>
       </c>
-      <c r="N37" s="118"/>
+      <c r="N37" s="144"/>
       <c r="O37" s="77">
         <f t="shared" si="5"/>
         <v>6.32</v>
@@ -18139,30 +18477,30 @@
       <c r="BT37"/>
     </row>
     <row r="38" spans="2:72" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="132"/>
-      <c r="C38" s="133"/>
+      <c r="B38" s="148"/>
+      <c r="C38" s="149"/>
       <c r="D38" s="95"/>
-      <c r="E38" s="113">
+      <c r="E38" s="152">
         <v>80</v>
       </c>
-      <c r="F38" s="113"/>
-      <c r="G38" s="113">
+      <c r="F38" s="152"/>
+      <c r="G38" s="152">
         <f t="shared" si="7"/>
         <v>4800</v>
       </c>
-      <c r="H38" s="113"/>
-      <c r="I38" s="113"/>
-      <c r="J38" s="113"/>
-      <c r="K38" s="116">
+      <c r="H38" s="152"/>
+      <c r="I38" s="152"/>
+      <c r="J38" s="152"/>
+      <c r="K38" s="142">
         <f t="shared" si="3"/>
         <v>3.7833333333333332</v>
       </c>
-      <c r="L38" s="117"/>
-      <c r="M38" s="118">
+      <c r="L38" s="143"/>
+      <c r="M38" s="144">
         <f t="shared" si="4"/>
         <v>227</v>
       </c>
-      <c r="N38" s="118"/>
+      <c r="N38" s="144"/>
       <c r="O38" s="77">
         <f t="shared" si="5"/>
         <v>10.316833333333333</v>
@@ -18301,30 +18639,30 @@
       <c r="BT38"/>
     </row>
     <row r="39" spans="2:72" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="132"/>
-      <c r="C39" s="133"/>
+      <c r="B39" s="148"/>
+      <c r="C39" s="149"/>
       <c r="D39" s="94"/>
-      <c r="E39" s="112">
+      <c r="E39" s="141">
         <v>100</v>
       </c>
-      <c r="F39" s="112"/>
-      <c r="G39" s="112">
+      <c r="F39" s="141"/>
+      <c r="G39" s="141">
         <f t="shared" si="7"/>
         <v>6000</v>
       </c>
-      <c r="H39" s="112"/>
-      <c r="I39" s="112"/>
-      <c r="J39" s="112"/>
-      <c r="K39" s="116">
+      <c r="H39" s="141"/>
+      <c r="I39" s="141"/>
+      <c r="J39" s="141"/>
+      <c r="K39" s="142">
         <f>AVERAGE(V39,AA39,AF39,AK39,AP39,AU39)</f>
         <v>4.0666666666666664</v>
       </c>
-      <c r="L39" s="117"/>
-      <c r="M39" s="118">
+      <c r="L39" s="143"/>
+      <c r="M39" s="144">
         <f t="shared" si="4"/>
         <v>244</v>
       </c>
-      <c r="N39" s="118"/>
+      <c r="N39" s="144"/>
       <c r="O39" s="77">
         <f t="shared" si="5"/>
         <v>12.279</v>
@@ -18463,30 +18801,30 @@
       <c r="BT39"/>
     </row>
     <row r="40" spans="2:72" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="132"/>
-      <c r="C40" s="133"/>
+      <c r="B40" s="148"/>
+      <c r="C40" s="149"/>
       <c r="D40" s="94"/>
-      <c r="E40" s="112">
+      <c r="E40" s="141">
         <v>125</v>
       </c>
-      <c r="F40" s="112"/>
-      <c r="G40" s="112">
+      <c r="F40" s="141"/>
+      <c r="G40" s="141">
         <f t="shared" si="7"/>
         <v>7500</v>
       </c>
-      <c r="H40" s="112"/>
-      <c r="I40" s="112"/>
-      <c r="J40" s="112"/>
-      <c r="K40" s="116">
+      <c r="H40" s="141"/>
+      <c r="I40" s="141"/>
+      <c r="J40" s="141"/>
+      <c r="K40" s="142">
         <f>AVERAGE(V40,AA40,AF40,AK40,AP40,AU40)</f>
         <v>4.0666666666666664</v>
       </c>
-      <c r="L40" s="117"/>
-      <c r="M40" s="118">
+      <c r="L40" s="143"/>
+      <c r="M40" s="144">
         <f t="shared" si="4"/>
         <v>244</v>
       </c>
-      <c r="N40" s="118"/>
+      <c r="N40" s="144"/>
       <c r="O40" s="77">
         <f t="shared" si="5"/>
         <v>18.239000000000001</v>
@@ -18625,30 +18963,30 @@
       <c r="BT40"/>
     </row>
     <row r="41" spans="2:72" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="132"/>
-      <c r="C41" s="133"/>
+      <c r="B41" s="148"/>
+      <c r="C41" s="149"/>
       <c r="D41" s="94"/>
-      <c r="E41" s="112">
+      <c r="E41" s="141">
         <v>150</v>
       </c>
-      <c r="F41" s="112"/>
-      <c r="G41" s="112">
+      <c r="F41" s="141"/>
+      <c r="G41" s="141">
         <f t="shared" si="7"/>
         <v>9000</v>
       </c>
-      <c r="H41" s="112"/>
-      <c r="I41" s="112"/>
-      <c r="J41" s="112"/>
-      <c r="K41" s="116">
+      <c r="H41" s="141"/>
+      <c r="I41" s="141"/>
+      <c r="J41" s="141"/>
+      <c r="K41" s="142">
         <f t="shared" si="3"/>
         <v>4.2333333333333334</v>
       </c>
-      <c r="L41" s="117"/>
-      <c r="M41" s="118">
+      <c r="L41" s="143"/>
+      <c r="M41" s="144">
         <f t="shared" si="4"/>
         <v>254</v>
       </c>
-      <c r="N41" s="118"/>
+      <c r="N41" s="144"/>
       <c r="O41" s="77">
         <f t="shared" si="5"/>
         <v>22.240500000000001</v>
@@ -18787,30 +19125,30 @@
       <c r="BT41"/>
     </row>
     <row r="42" spans="2:72" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="132"/>
-      <c r="C42" s="133"/>
+      <c r="B42" s="148"/>
+      <c r="C42" s="149"/>
       <c r="D42" s="94"/>
-      <c r="E42" s="112">
+      <c r="E42" s="141">
         <v>200</v>
       </c>
-      <c r="F42" s="112"/>
-      <c r="G42" s="112">
+      <c r="F42" s="141"/>
+      <c r="G42" s="141">
         <f t="shared" si="7"/>
         <v>12000</v>
       </c>
-      <c r="H42" s="112"/>
-      <c r="I42" s="112"/>
-      <c r="J42" s="112"/>
-      <c r="K42" s="116">
+      <c r="H42" s="141"/>
+      <c r="I42" s="141"/>
+      <c r="J42" s="141"/>
+      <c r="K42" s="142">
         <f t="shared" si="3"/>
         <v>4.7</v>
       </c>
-      <c r="L42" s="117"/>
-      <c r="M42" s="118">
+      <c r="L42" s="143"/>
+      <c r="M42" s="144">
         <f t="shared" si="4"/>
         <v>282</v>
       </c>
-      <c r="N42" s="118"/>
+      <c r="N42" s="144"/>
       <c r="O42" s="77">
         <f t="shared" si="5"/>
         <v>27.329166666666669</v>
@@ -18949,30 +19287,30 @@
       <c r="BT42"/>
     </row>
     <row r="43" spans="2:72" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="132"/>
-      <c r="C43" s="133"/>
+      <c r="B43" s="148"/>
+      <c r="C43" s="149"/>
       <c r="D43" s="94"/>
-      <c r="E43" s="112">
+      <c r="E43" s="141">
         <v>300</v>
       </c>
-      <c r="F43" s="112"/>
-      <c r="G43" s="112">
+      <c r="F43" s="141"/>
+      <c r="G43" s="141">
         <f t="shared" si="7"/>
         <v>18000</v>
       </c>
-      <c r="H43" s="112"/>
-      <c r="I43" s="112"/>
-      <c r="J43" s="112"/>
-      <c r="K43" s="116">
+      <c r="H43" s="141"/>
+      <c r="I43" s="141"/>
+      <c r="J43" s="141"/>
+      <c r="K43" s="142">
         <f t="shared" si="3"/>
         <v>4.8666666666666663</v>
       </c>
-      <c r="L43" s="117"/>
-      <c r="M43" s="118">
+      <c r="L43" s="143"/>
+      <c r="M43" s="144">
         <f t="shared" si="4"/>
         <v>292</v>
       </c>
-      <c r="N43" s="118"/>
+      <c r="N43" s="144"/>
       <c r="O43" s="77">
         <f t="shared" si="5"/>
         <v>43.045000000000002</v>
@@ -19111,45 +19449,45 @@
       <c r="BT43"/>
     </row>
     <row r="44" spans="2:72" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="132"/>
-      <c r="C44" s="133"/>
+      <c r="B44" s="148"/>
+      <c r="C44" s="149"/>
       <c r="D44" s="94"/>
-      <c r="E44" s="113">
+      <c r="E44" s="152">
         <v>400</v>
       </c>
-      <c r="F44" s="113"/>
-      <c r="G44" s="112">
+      <c r="F44" s="152"/>
+      <c r="G44" s="141">
         <f>E44*60</f>
         <v>24000</v>
       </c>
-      <c r="H44" s="112"/>
-      <c r="I44" s="112"/>
-      <c r="J44" s="112"/>
-      <c r="K44" s="116">
+      <c r="H44" s="141"/>
+      <c r="I44" s="141"/>
+      <c r="J44" s="141"/>
+      <c r="K44" s="142">
         <f t="shared" si="3"/>
-        <v>4.0200000000000005</v>
-      </c>
-      <c r="L44" s="117"/>
-      <c r="M44" s="118">
+        <v>4.1166666666666671</v>
+      </c>
+      <c r="L44" s="143"/>
+      <c r="M44" s="144">
         <f t="shared" si="4"/>
-        <v>241.20000000000002</v>
-      </c>
-      <c r="N44" s="118"/>
+        <v>247.00000000000003</v>
+      </c>
+      <c r="N44" s="144"/>
       <c r="O44" s="77">
         <f t="shared" si="5"/>
-        <v>72.519600000000011</v>
+        <v>70.205500000000001</v>
       </c>
       <c r="P44" s="91">
         <f t="shared" si="2"/>
-        <v>208.9042</v>
+        <v>201.85599999999999</v>
       </c>
       <c r="Q44" s="98">
         <f t="shared" si="6"/>
-        <v>2.2000000000000002</v>
+        <v>2.1666666666666665</v>
       </c>
       <c r="R44" s="78">
         <f t="shared" si="2"/>
-        <v>629.56500000000005</v>
+        <v>622.93299999999999</v>
       </c>
       <c r="S44" s="46">
         <v>41.5</v>
@@ -19235,11 +19573,21 @@
       <c r="AT44" s="49">
         <v>444337</v>
       </c>
-      <c r="AU44" s="48"/>
-      <c r="AV44" s="44"/>
-      <c r="AW44" s="92"/>
-      <c r="AX44" s="45"/>
-      <c r="AY44" s="49"/>
+      <c r="AU44" s="48">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AV44" s="44">
+        <v>58635</v>
+      </c>
+      <c r="AW44" s="92">
+        <v>166615</v>
+      </c>
+      <c r="AX44" s="45">
+        <v>2</v>
+      </c>
+      <c r="AY44" s="49">
+        <v>589773</v>
+      </c>
       <c r="AZ44"/>
       <c r="BA44"/>
       <c r="BB44"/>
@@ -19263,45 +19611,45 @@
       <c r="BT44"/>
     </row>
     <row r="45" spans="2:72" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="132"/>
-      <c r="C45" s="133"/>
+      <c r="B45" s="148"/>
+      <c r="C45" s="149"/>
       <c r="D45" s="94"/>
-      <c r="E45" s="113">
+      <c r="E45" s="152">
         <v>500</v>
       </c>
-      <c r="F45" s="113"/>
-      <c r="G45" s="112">
+      <c r="F45" s="152"/>
+      <c r="G45" s="141">
         <f t="shared" si="7"/>
         <v>30000</v>
       </c>
-      <c r="H45" s="112"/>
-      <c r="I45" s="112"/>
-      <c r="J45" s="112"/>
-      <c r="K45" s="116">
+      <c r="H45" s="141"/>
+      <c r="I45" s="141"/>
+      <c r="J45" s="141"/>
+      <c r="K45" s="142">
         <f t="shared" si="3"/>
-        <v>3.9200000000000004</v>
-      </c>
-      <c r="L45" s="117"/>
-      <c r="M45" s="118">
+        <v>3.9666666666666668</v>
+      </c>
+      <c r="L45" s="143"/>
+      <c r="M45" s="144">
         <f t="shared" si="4"/>
-        <v>235.20000000000002</v>
-      </c>
-      <c r="N45" s="118"/>
+        <v>238</v>
+      </c>
+      <c r="N45" s="144"/>
       <c r="O45" s="77">
         <f t="shared" si="5"/>
-        <v>91.455399999999997</v>
+        <v>89.987166666666667</v>
       </c>
       <c r="P45" s="91">
         <f t="shared" si="2"/>
-        <v>252.69759999999999</v>
+        <v>248.31133333333335</v>
       </c>
       <c r="Q45" s="98">
         <f t="shared" si="6"/>
-        <v>2.2000000000000002</v>
+        <v>2.1666666666666665</v>
       </c>
       <c r="R45" s="78">
         <f t="shared" si="2"/>
-        <v>739.89480000000003</v>
+        <v>751.06100000000004</v>
       </c>
       <c r="S45" s="46">
         <v>45.5</v>
@@ -19387,11 +19735,21 @@
       <c r="AT45" s="49">
         <v>81005</v>
       </c>
-      <c r="AU45" s="48"/>
-      <c r="AV45" s="44"/>
-      <c r="AW45" s="92"/>
-      <c r="AX45" s="45"/>
-      <c r="AY45" s="49"/>
+      <c r="AU45" s="48">
+        <v>4.2</v>
+      </c>
+      <c r="AV45" s="44">
+        <v>82646</v>
+      </c>
+      <c r="AW45" s="92">
+        <v>226380</v>
+      </c>
+      <c r="AX45" s="45">
+        <v>2</v>
+      </c>
+      <c r="AY45" s="49">
+        <v>806892</v>
+      </c>
       <c r="AZ45"/>
       <c r="BA45"/>
       <c r="BB45"/>
@@ -19415,37 +19773,37 @@
       <c r="BT45"/>
     </row>
     <row r="46" spans="2:72" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="134"/>
-      <c r="C46" s="135"/>
+      <c r="B46" s="150"/>
+      <c r="C46" s="151"/>
       <c r="D46" s="94"/>
-      <c r="E46" s="113">
+      <c r="E46" s="152">
         <v>800</v>
       </c>
-      <c r="F46" s="113"/>
-      <c r="G46" s="112">
+      <c r="F46" s="152"/>
+      <c r="G46" s="141">
         <f t="shared" si="7"/>
         <v>48000</v>
       </c>
-      <c r="H46" s="112"/>
-      <c r="I46" s="112"/>
-      <c r="J46" s="112"/>
-      <c r="K46" s="116">
+      <c r="H46" s="141"/>
+      <c r="I46" s="141"/>
+      <c r="J46" s="141"/>
+      <c r="K46" s="142">
         <f t="shared" si="3"/>
-        <v>4.9799999999999995</v>
-      </c>
-      <c r="L46" s="117"/>
-      <c r="M46" s="118">
+        <v>4.95</v>
+      </c>
+      <c r="L46" s="143"/>
+      <c r="M46" s="144">
         <f t="shared" si="4"/>
-        <v>298.79999999999995</v>
-      </c>
-      <c r="N46" s="118"/>
+        <v>297</v>
+      </c>
+      <c r="N46" s="144"/>
       <c r="O46" s="77">
         <f t="shared" si="5"/>
-        <v>113.98099999999999</v>
+        <v>113.74083333333333</v>
       </c>
       <c r="P46" s="91">
         <f t="shared" si="2"/>
-        <v>357.14320000000004</v>
+        <v>344.70316666666668</v>
       </c>
       <c r="Q46" s="98">
         <f t="shared" si="6"/>
@@ -19453,7 +19811,7 @@
       </c>
       <c r="R46" s="78">
         <f t="shared" si="2"/>
-        <v>1181.0036</v>
+        <v>1208.684</v>
       </c>
       <c r="S46" s="46">
         <v>38</v>
@@ -19539,11 +19897,21 @@
       <c r="AT46" s="49">
         <v>1051499</v>
       </c>
-      <c r="AU46" s="48"/>
-      <c r="AV46" s="44"/>
-      <c r="AW46" s="92"/>
-      <c r="AX46" s="45"/>
-      <c r="AY46" s="49"/>
+      <c r="AU46" s="48">
+        <v>4.8</v>
+      </c>
+      <c r="AV46" s="44">
+        <v>112540</v>
+      </c>
+      <c r="AW46" s="92">
+        <v>282503</v>
+      </c>
+      <c r="AX46" s="45">
+        <v>2</v>
+      </c>
+      <c r="AY46" s="49">
+        <v>1347086</v>
+      </c>
       <c r="AZ46"/>
       <c r="BA46"/>
       <c r="BB46"/>
@@ -20337,58 +20705,58 @@
       <c r="BN69" s="27"/>
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A95" s="121" t="s">
+      <c r="A95" s="158" t="s">
         <v>248</v>
       </c>
-      <c r="B95" s="114" t="s">
+      <c r="B95" s="153" t="s">
         <v>229</v>
       </c>
-      <c r="C95" s="114"/>
-      <c r="D95" s="114"/>
-      <c r="E95" s="114"/>
-      <c r="F95" s="114"/>
-      <c r="G95" s="114"/>
-      <c r="H95" s="114"/>
-      <c r="I95" s="114"/>
-      <c r="J95" s="114"/>
-      <c r="K95" s="114"/>
-      <c r="L95" s="114"/>
-      <c r="M95" s="114"/>
-      <c r="N95" s="114"/>
-      <c r="O95" s="114"/>
-      <c r="P95" s="114"/>
-      <c r="Q95" s="114"/>
-      <c r="R95" s="114"/>
-      <c r="S95" s="114"/>
-      <c r="T95" s="114"/>
-      <c r="U95" s="114"/>
-      <c r="V95" s="114"/>
-      <c r="W95" s="114"/>
+      <c r="C95" s="153"/>
+      <c r="D95" s="153"/>
+      <c r="E95" s="153"/>
+      <c r="F95" s="153"/>
+      <c r="G95" s="153"/>
+      <c r="H95" s="153"/>
+      <c r="I95" s="153"/>
+      <c r="J95" s="153"/>
+      <c r="K95" s="153"/>
+      <c r="L95" s="153"/>
+      <c r="M95" s="153"/>
+      <c r="N95" s="153"/>
+      <c r="O95" s="153"/>
+      <c r="P95" s="153"/>
+      <c r="Q95" s="153"/>
+      <c r="R95" s="153"/>
+      <c r="S95" s="153"/>
+      <c r="T95" s="153"/>
+      <c r="U95" s="153"/>
+      <c r="V95" s="153"/>
+      <c r="W95" s="153"/>
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A96" s="121"/>
-      <c r="B96" s="114"/>
-      <c r="C96" s="114"/>
-      <c r="D96" s="114"/>
-      <c r="E96" s="114"/>
-      <c r="F96" s="114"/>
-      <c r="G96" s="114"/>
-      <c r="H96" s="114"/>
-      <c r="I96" s="114"/>
-      <c r="J96" s="114"/>
-      <c r="K96" s="114"/>
-      <c r="L96" s="114"/>
-      <c r="M96" s="114"/>
-      <c r="N96" s="114"/>
-      <c r="O96" s="114"/>
-      <c r="P96" s="114"/>
-      <c r="Q96" s="114"/>
-      <c r="R96" s="114"/>
-      <c r="S96" s="114"/>
-      <c r="T96" s="114"/>
-      <c r="U96" s="114"/>
-      <c r="V96" s="114"/>
-      <c r="W96" s="114"/>
+      <c r="A96" s="158"/>
+      <c r="B96" s="153"/>
+      <c r="C96" s="153"/>
+      <c r="D96" s="153"/>
+      <c r="E96" s="153"/>
+      <c r="F96" s="153"/>
+      <c r="G96" s="153"/>
+      <c r="H96" s="153"/>
+      <c r="I96" s="153"/>
+      <c r="J96" s="153"/>
+      <c r="K96" s="153"/>
+      <c r="L96" s="153"/>
+      <c r="M96" s="153"/>
+      <c r="N96" s="153"/>
+      <c r="O96" s="153"/>
+      <c r="P96" s="153"/>
+      <c r="Q96" s="153"/>
+      <c r="R96" s="153"/>
+      <c r="S96" s="153"/>
+      <c r="T96" s="153"/>
+      <c r="U96" s="153"/>
+      <c r="V96" s="153"/>
+      <c r="W96" s="153"/>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D98" s="73"/>
@@ -20409,26 +20777,26 @@
       <c r="U98" s="20"/>
     </row>
     <row r="99" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A99" s="120" t="s">
+      <c r="A99" s="159" t="s">
         <v>216</v>
       </c>
-      <c r="B99" s="120"/>
-      <c r="C99" s="120"/>
-      <c r="D99" s="120"/>
-      <c r="E99" s="120"/>
-      <c r="F99" s="120"/>
-      <c r="G99" s="120"/>
-      <c r="H99" s="120"/>
-      <c r="I99" s="120"/>
-      <c r="J99" s="120"/>
-      <c r="K99" s="120"/>
-      <c r="L99" s="120"/>
-      <c r="M99" s="120"/>
-      <c r="N99" s="120"/>
-      <c r="O99" s="120"/>
-      <c r="P99" s="120"/>
-      <c r="Q99" s="120"/>
-      <c r="R99" s="120"/>
+      <c r="B99" s="159"/>
+      <c r="C99" s="159"/>
+      <c r="D99" s="159"/>
+      <c r="E99" s="159"/>
+      <c r="F99" s="159"/>
+      <c r="G99" s="159"/>
+      <c r="H99" s="159"/>
+      <c r="I99" s="159"/>
+      <c r="J99" s="159"/>
+      <c r="K99" s="159"/>
+      <c r="L99" s="159"/>
+      <c r="M99" s="159"/>
+      <c r="N99" s="159"/>
+      <c r="O99" s="159"/>
+      <c r="P99" s="159"/>
+      <c r="Q99" s="159"/>
+      <c r="R99" s="159"/>
       <c r="U99" s="20"/>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.25">
@@ -20912,26 +21280,26 @@
       <c r="U108"/>
     </row>
     <row r="110" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A110" s="120" t="s">
+      <c r="A110" s="159" t="s">
         <v>233</v>
       </c>
-      <c r="B110" s="120"/>
-      <c r="C110" s="120"/>
-      <c r="D110" s="120"/>
-      <c r="E110" s="120"/>
-      <c r="F110" s="120"/>
-      <c r="G110" s="120"/>
-      <c r="H110" s="120"/>
-      <c r="I110" s="120"/>
-      <c r="J110" s="120"/>
-      <c r="K110" s="120"/>
-      <c r="L110" s="120"/>
-      <c r="M110" s="120"/>
-      <c r="N110" s="120"/>
-      <c r="O110" s="120"/>
-      <c r="P110" s="120"/>
-      <c r="Q110" s="120"/>
-      <c r="R110" s="120"/>
+      <c r="B110" s="159"/>
+      <c r="C110" s="159"/>
+      <c r="D110" s="159"/>
+      <c r="E110" s="159"/>
+      <c r="F110" s="159"/>
+      <c r="G110" s="159"/>
+      <c r="H110" s="159"/>
+      <c r="I110" s="159"/>
+      <c r="J110" s="159"/>
+      <c r="K110" s="159"/>
+      <c r="L110" s="159"/>
+      <c r="M110" s="159"/>
+      <c r="N110" s="159"/>
+      <c r="O110" s="159"/>
+      <c r="P110" s="159"/>
+      <c r="Q110" s="159"/>
+      <c r="R110" s="159"/>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111" s="6"/>
@@ -21458,29 +21826,29 @@
       <c r="BK121" s="27"/>
     </row>
     <row r="122" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="B122" s="115" t="s">
+      <c r="B122" s="137" t="s">
         <v>219</v>
       </c>
-      <c r="C122" s="115"/>
+      <c r="C122" s="137"/>
       <c r="D122" s="56"/>
-      <c r="E122" s="115" t="s">
+      <c r="E122" s="137" t="s">
         <v>228</v>
       </c>
-      <c r="F122" s="115"/>
-      <c r="G122" s="115" t="s">
+      <c r="F122" s="137"/>
+      <c r="G122" s="137" t="s">
         <v>217</v>
       </c>
-      <c r="H122" s="115"/>
-      <c r="I122" s="115"/>
-      <c r="J122" s="115"/>
-      <c r="K122" s="124" t="s">
+      <c r="H122" s="137"/>
+      <c r="I122" s="137"/>
+      <c r="J122" s="137"/>
+      <c r="K122" s="138" t="s">
         <v>227</v>
       </c>
-      <c r="L122" s="125"/>
-      <c r="M122" s="126" t="s">
+      <c r="L122" s="139"/>
+      <c r="M122" s="140" t="s">
         <v>218</v>
       </c>
-      <c r="N122" s="126"/>
+      <c r="N122" s="140"/>
       <c r="O122" s="28" t="s">
         <v>221</v>
       </c>
@@ -21621,32 +21989,32 @@
       </c>
     </row>
     <row r="123" spans="1:63" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="112" t="s">
+      <c r="B123" s="141" t="s">
         <v>220</v>
       </c>
-      <c r="C123" s="112"/>
+      <c r="C123" s="141"/>
       <c r="D123" s="57"/>
-      <c r="E123" s="112">
+      <c r="E123" s="141">
         <v>1</v>
       </c>
-      <c r="F123" s="112"/>
-      <c r="G123" s="112">
+      <c r="F123" s="141"/>
+      <c r="G123" s="141">
         <f>E123*60</f>
         <v>60</v>
       </c>
-      <c r="H123" s="112"/>
-      <c r="I123" s="112"/>
-      <c r="J123" s="112"/>
-      <c r="K123" s="127">
+      <c r="H123" s="141"/>
+      <c r="I123" s="141"/>
+      <c r="J123" s="141"/>
+      <c r="K123" s="154">
         <f>AVERAGE(U123,Y123,AC123,AG123,AK123,AO123,AS123,AW123,BA123,BE123)</f>
         <v>0.13791666666666666</v>
       </c>
-      <c r="L123" s="128"/>
-      <c r="M123" s="118">
+      <c r="L123" s="155"/>
+      <c r="M123" s="144">
         <f>K123*60</f>
         <v>8.2750000000000004</v>
       </c>
-      <c r="N123" s="118"/>
+      <c r="N123" s="144"/>
       <c r="O123" s="77">
         <f>AVERAGE(V123,Z123,AD123,AH123,AL123,AP123,AT123,AX123,BB123,BF123)/1000</f>
         <v>1.3592500000000001</v>
@@ -21746,30 +22114,30 @@
       <c r="BH123" s="49"/>
     </row>
     <row r="124" spans="1:63" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="112"/>
-      <c r="C124" s="112"/>
+      <c r="B124" s="141"/>
+      <c r="C124" s="141"/>
       <c r="D124" s="57"/>
-      <c r="E124" s="112">
+      <c r="E124" s="141">
         <v>5</v>
       </c>
-      <c r="F124" s="112"/>
-      <c r="G124" s="112">
+      <c r="F124" s="141"/>
+      <c r="G124" s="141">
         <f>E124*60</f>
         <v>300</v>
       </c>
-      <c r="H124" s="112"/>
-      <c r="I124" s="112"/>
-      <c r="J124" s="112"/>
-      <c r="K124" s="127">
+      <c r="H124" s="141"/>
+      <c r="I124" s="141"/>
+      <c r="J124" s="141"/>
+      <c r="K124" s="154">
         <f t="shared" ref="K124:K128" si="11">AVERAGE(U124,Y124,AC124,AG124,AK124,AO124,AS124,AW124,BA124,BE124)</f>
         <v>0.40499999999999997</v>
       </c>
-      <c r="L124" s="128"/>
-      <c r="M124" s="118">
+      <c r="L124" s="155"/>
+      <c r="M124" s="144">
         <f t="shared" ref="M124:M127" si="12">K124*60</f>
         <v>24.299999999999997</v>
       </c>
-      <c r="N124" s="118"/>
+      <c r="N124" s="144"/>
       <c r="O124" s="77">
         <f t="shared" ref="O124:O130" si="13">AVERAGE(V124,Z124,AD124,AH124,AL124,AP124,AT124,AX124,BB124,BF124)/1000</f>
         <v>4.4859999999999998</v>
@@ -21869,30 +22237,30 @@
       <c r="BH124" s="49"/>
     </row>
     <row r="125" spans="1:63" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="112"/>
-      <c r="C125" s="112"/>
+      <c r="B125" s="141"/>
+      <c r="C125" s="141"/>
       <c r="D125" s="74"/>
-      <c r="E125" s="112">
+      <c r="E125" s="141">
         <v>10</v>
       </c>
-      <c r="F125" s="112"/>
-      <c r="G125" s="112">
+      <c r="F125" s="141"/>
+      <c r="G125" s="141">
         <f t="shared" ref="G125:G130" si="15">E125*60</f>
         <v>600</v>
       </c>
-      <c r="H125" s="112"/>
-      <c r="I125" s="112"/>
-      <c r="J125" s="112"/>
-      <c r="K125" s="127">
+      <c r="H125" s="141"/>
+      <c r="I125" s="141"/>
+      <c r="J125" s="141"/>
+      <c r="K125" s="154">
         <f t="shared" si="11"/>
         <v>0.5788888888888889</v>
       </c>
-      <c r="L125" s="128"/>
-      <c r="M125" s="118">
+      <c r="L125" s="155"/>
+      <c r="M125" s="144">
         <f t="shared" si="12"/>
         <v>34.733333333333334</v>
       </c>
-      <c r="N125" s="118"/>
+      <c r="N125" s="144"/>
       <c r="O125" s="77">
         <f t="shared" si="13"/>
         <v>8.4629999999999992</v>
@@ -21983,30 +22351,30 @@
       <c r="BH125" s="49"/>
     </row>
     <row r="126" spans="1:63" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="112"/>
-      <c r="C126" s="112"/>
+      <c r="B126" s="141"/>
+      <c r="C126" s="141"/>
       <c r="D126" s="74"/>
-      <c r="E126" s="112">
+      <c r="E126" s="141">
         <v>20</v>
       </c>
-      <c r="F126" s="112"/>
-      <c r="G126" s="112">
+      <c r="F126" s="141"/>
+      <c r="G126" s="141">
         <f t="shared" si="15"/>
         <v>1200</v>
       </c>
-      <c r="H126" s="112"/>
-      <c r="I126" s="112"/>
-      <c r="J126" s="112"/>
-      <c r="K126" s="127">
+      <c r="H126" s="141"/>
+      <c r="I126" s="141"/>
+      <c r="J126" s="141"/>
+      <c r="K126" s="154">
         <f t="shared" si="11"/>
         <v>0.63041666666666663</v>
       </c>
-      <c r="L126" s="128"/>
-      <c r="M126" s="118">
+      <c r="L126" s="155"/>
+      <c r="M126" s="144">
         <f t="shared" si="12"/>
         <v>37.824999999999996</v>
       </c>
-      <c r="N126" s="118"/>
+      <c r="N126" s="144"/>
       <c r="O126" s="77">
         <f t="shared" si="13"/>
         <v>21.035499999999999</v>
@@ -22106,30 +22474,30 @@
       <c r="BH126" s="49"/>
     </row>
     <row r="127" spans="1:63" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="112"/>
-      <c r="C127" s="112"/>
+      <c r="B127" s="141"/>
+      <c r="C127" s="141"/>
       <c r="D127" s="74"/>
-      <c r="E127" s="112">
+      <c r="E127" s="141">
         <v>50</v>
       </c>
-      <c r="F127" s="112"/>
-      <c r="G127" s="112">
+      <c r="F127" s="141"/>
+      <c r="G127" s="141">
         <f t="shared" si="15"/>
         <v>3000</v>
       </c>
-      <c r="H127" s="112"/>
-      <c r="I127" s="112"/>
-      <c r="J127" s="112"/>
-      <c r="K127" s="127">
+      <c r="H127" s="141"/>
+      <c r="I127" s="141"/>
+      <c r="J127" s="141"/>
+      <c r="K127" s="154">
         <f t="shared" si="11"/>
         <v>0.67277777777777781</v>
       </c>
-      <c r="L127" s="128"/>
-      <c r="M127" s="118">
+      <c r="L127" s="155"/>
+      <c r="M127" s="144">
         <f t="shared" si="12"/>
         <v>40.366666666666667</v>
       </c>
-      <c r="N127" s="118"/>
+      <c r="N127" s="144"/>
       <c r="O127" s="77">
         <f t="shared" si="13"/>
         <v>56.269666666666666</v>
@@ -22220,30 +22588,30 @@
       <c r="BH127" s="49"/>
     </row>
     <row r="128" spans="1:63" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="112"/>
-      <c r="C128" s="112"/>
+      <c r="B128" s="141"/>
+      <c r="C128" s="141"/>
       <c r="D128" s="58"/>
-      <c r="E128" s="113">
+      <c r="E128" s="152">
         <v>80</v>
       </c>
-      <c r="F128" s="113"/>
-      <c r="G128" s="113">
+      <c r="F128" s="152"/>
+      <c r="G128" s="152">
         <f t="shared" si="15"/>
         <v>4800</v>
       </c>
-      <c r="H128" s="113"/>
-      <c r="I128" s="113"/>
-      <c r="J128" s="113"/>
-      <c r="K128" s="127">
+      <c r="H128" s="152"/>
+      <c r="I128" s="152"/>
+      <c r="J128" s="152"/>
+      <c r="K128" s="154">
         <f t="shared" si="11"/>
         <v>0.70333333333333325</v>
       </c>
-      <c r="L128" s="128"/>
-      <c r="M128" s="118">
+      <c r="L128" s="155"/>
+      <c r="M128" s="144">
         <f t="shared" ref="M128:M130" si="16">K128*60</f>
         <v>42.199999999999996</v>
       </c>
-      <c r="N128" s="118"/>
+      <c r="N128" s="144"/>
       <c r="O128" s="77">
         <f t="shared" si="13"/>
         <v>87.898666666666671</v>
@@ -22334,30 +22702,30 @@
       <c r="BH128" s="49"/>
     </row>
     <row r="129" spans="2:60" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="112"/>
-      <c r="C129" s="112"/>
+      <c r="B129" s="141"/>
+      <c r="C129" s="141"/>
       <c r="D129" s="57"/>
-      <c r="E129" s="112">
+      <c r="E129" s="141">
         <v>100</v>
       </c>
-      <c r="F129" s="112"/>
-      <c r="G129" s="112">
+      <c r="F129" s="141"/>
+      <c r="G129" s="141">
         <f t="shared" si="15"/>
         <v>6000</v>
       </c>
-      <c r="H129" s="112"/>
-      <c r="I129" s="112"/>
-      <c r="J129" s="112"/>
-      <c r="K129" s="127">
+      <c r="H129" s="141"/>
+      <c r="I129" s="141"/>
+      <c r="J129" s="141"/>
+      <c r="K129" s="154">
         <f t="shared" ref="K129:K130" si="17">AVERAGE(U129,Y129,AC129,AG129,AK129,AO129,AS129,AW129,BA129,BE129)</f>
         <v>0.67333333333333334</v>
       </c>
-      <c r="L129" s="128"/>
-      <c r="M129" s="118">
+      <c r="L129" s="155"/>
+      <c r="M129" s="144">
         <f t="shared" si="16"/>
         <v>40.4</v>
       </c>
-      <c r="N129" s="118"/>
+      <c r="N129" s="144"/>
       <c r="O129" s="77">
         <f t="shared" si="13"/>
         <v>115.361</v>
@@ -22424,28 +22792,28 @@
       <c r="BH129" s="49"/>
     </row>
     <row r="130" spans="2:60" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="112"/>
-      <c r="C130" s="112"/>
+      <c r="B130" s="141"/>
+      <c r="C130" s="141"/>
       <c r="D130" s="57"/>
-      <c r="E130" s="112"/>
-      <c r="F130" s="112"/>
-      <c r="G130" s="112">
+      <c r="E130" s="141"/>
+      <c r="F130" s="141"/>
+      <c r="G130" s="141">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="H130" s="112"/>
-      <c r="I130" s="112"/>
-      <c r="J130" s="112"/>
-      <c r="K130" s="127" t="e">
+      <c r="H130" s="141"/>
+      <c r="I130" s="141"/>
+      <c r="J130" s="141"/>
+      <c r="K130" s="154" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L130" s="128"/>
-      <c r="M130" s="118" t="e">
+      <c r="L130" s="155"/>
+      <c r="M130" s="144" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N130" s="118"/>
+      <c r="N130" s="144"/>
       <c r="O130" s="77" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
@@ -23046,73 +23414,73 @@
       <c r="Q190" s="27"/>
       <c r="R190" s="27"/>
       <c r="U190" s="52"/>
-      <c r="V190" s="119" t="s">
+      <c r="V190" s="136" t="s">
         <v>234</v>
       </c>
-      <c r="W190" s="119"/>
-      <c r="X190" s="119"/>
-      <c r="Y190" s="119"/>
-      <c r="Z190" s="119"/>
-      <c r="AA190" s="119" t="s">
+      <c r="W190" s="136"/>
+      <c r="X190" s="136"/>
+      <c r="Y190" s="136"/>
+      <c r="Z190" s="136"/>
+      <c r="AA190" s="136" t="s">
         <v>235</v>
       </c>
-      <c r="AB190" s="119"/>
-      <c r="AC190" s="119"/>
-      <c r="AD190" s="119"/>
-      <c r="AE190" s="119"/>
-      <c r="AF190" s="119" t="s">
+      <c r="AB190" s="136"/>
+      <c r="AC190" s="136"/>
+      <c r="AD190" s="136"/>
+      <c r="AE190" s="136"/>
+      <c r="AF190" s="136" t="s">
         <v>236</v>
       </c>
-      <c r="AG190" s="119"/>
-      <c r="AH190" s="119"/>
-      <c r="AI190" s="119"/>
-      <c r="AJ190" s="119"/>
-      <c r="AK190" s="119" t="s">
+      <c r="AG190" s="136"/>
+      <c r="AH190" s="136"/>
+      <c r="AI190" s="136"/>
+      <c r="AJ190" s="136"/>
+      <c r="AK190" s="136" t="s">
         <v>237</v>
       </c>
-      <c r="AL190" s="119"/>
-      <c r="AM190" s="119"/>
-      <c r="AN190" s="119"/>
-      <c r="AO190" s="119"/>
-      <c r="AP190" s="119" t="s">
+      <c r="AL190" s="136"/>
+      <c r="AM190" s="136"/>
+      <c r="AN190" s="136"/>
+      <c r="AO190" s="136"/>
+      <c r="AP190" s="136" t="s">
         <v>238</v>
       </c>
-      <c r="AQ190" s="119"/>
-      <c r="AR190" s="119"/>
-      <c r="AS190" s="119"/>
-      <c r="AT190" s="119"/>
-      <c r="AU190" s="119" t="s">
+      <c r="AQ190" s="136"/>
+      <c r="AR190" s="136"/>
+      <c r="AS190" s="136"/>
+      <c r="AT190" s="136"/>
+      <c r="AU190" s="136" t="s">
         <v>239</v>
       </c>
-      <c r="AV190" s="119"/>
-      <c r="AW190" s="119"/>
-      <c r="AX190" s="119"/>
-      <c r="AY190" s="119"/>
+      <c r="AV190" s="136"/>
+      <c r="AW190" s="136"/>
+      <c r="AX190" s="136"/>
+      <c r="AY190" s="136"/>
     </row>
     <row r="191" spans="2:72" x14ac:dyDescent="0.25">
-      <c r="B191" s="115" t="s">
+      <c r="B191" s="137" t="s">
         <v>219</v>
       </c>
-      <c r="C191" s="115"/>
+      <c r="C191" s="137"/>
       <c r="D191" s="81"/>
-      <c r="E191" s="115" t="s">
+      <c r="E191" s="137" t="s">
         <v>228</v>
       </c>
-      <c r="F191" s="115"/>
-      <c r="G191" s="115" t="s">
+      <c r="F191" s="137"/>
+      <c r="G191" s="137" t="s">
         <v>217</v>
       </c>
-      <c r="H191" s="115"/>
-      <c r="I191" s="115"/>
-      <c r="J191" s="115"/>
-      <c r="K191" s="124" t="s">
+      <c r="H191" s="137"/>
+      <c r="I191" s="137"/>
+      <c r="J191" s="137"/>
+      <c r="K191" s="138" t="s">
         <v>227</v>
       </c>
-      <c r="L191" s="125"/>
-      <c r="M191" s="126" t="s">
+      <c r="L191" s="139"/>
+      <c r="M191" s="140" t="s">
         <v>218</v>
       </c>
-      <c r="N191" s="126"/>
+      <c r="N191" s="140"/>
       <c r="O191" s="28" t="s">
         <v>243</v>
       </c>
@@ -23226,32 +23594,32 @@
       </c>
     </row>
     <row r="192" spans="2:72" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="130" t="s">
+      <c r="B192" s="146" t="s">
         <v>220</v>
       </c>
-      <c r="C192" s="131"/>
+      <c r="C192" s="147"/>
       <c r="D192" s="82"/>
-      <c r="E192" s="112">
+      <c r="E192" s="141">
         <v>1</v>
       </c>
-      <c r="F192" s="112"/>
-      <c r="G192" s="112">
+      <c r="F192" s="141"/>
+      <c r="G192" s="141">
         <f>E192*60</f>
         <v>60</v>
       </c>
-      <c r="H192" s="112"/>
-      <c r="I192" s="112"/>
-      <c r="J192" s="112"/>
-      <c r="K192" s="116">
+      <c r="H192" s="141"/>
+      <c r="I192" s="141"/>
+      <c r="J192" s="141"/>
+      <c r="K192" s="142">
         <f>AVERAGE(V192,AA192,AF192,AK192,AP192,AU192)</f>
         <v>0.15222222222222223</v>
       </c>
-      <c r="L192" s="117"/>
-      <c r="M192" s="118">
+      <c r="L192" s="143"/>
+      <c r="M192" s="144">
         <f>K192*60</f>
         <v>9.1333333333333346</v>
       </c>
-      <c r="N192" s="118"/>
+      <c r="N192" s="144"/>
       <c r="O192" s="77">
         <f>AVERAGE(W192,AB192,AG192,AL192,AQ192,AV192)/1000</f>
         <v>0.66300000000000003</v>
@@ -23390,30 +23758,30 @@
       <c r="BT192"/>
     </row>
     <row r="193" spans="2:72" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="132"/>
-      <c r="C193" s="133"/>
+      <c r="B193" s="148"/>
+      <c r="C193" s="149"/>
       <c r="D193" s="82"/>
-      <c r="E193" s="112">
+      <c r="E193" s="141">
         <v>5</v>
       </c>
-      <c r="F193" s="112"/>
-      <c r="G193" s="112">
+      <c r="F193" s="141"/>
+      <c r="G193" s="141">
         <f>E193*60</f>
         <v>300</v>
       </c>
-      <c r="H193" s="112"/>
-      <c r="I193" s="112"/>
-      <c r="J193" s="112"/>
-      <c r="K193" s="116">
+      <c r="H193" s="141"/>
+      <c r="I193" s="141"/>
+      <c r="J193" s="141"/>
+      <c r="K193" s="142">
         <f t="shared" ref="K193:K205" si="20">AVERAGE(V193,AA193,AF193,AK193,AP193,AU193)</f>
         <v>0.64194444444444443</v>
       </c>
-      <c r="L193" s="117"/>
-      <c r="M193" s="118">
+      <c r="L193" s="143"/>
+      <c r="M193" s="144">
         <f t="shared" ref="M193:M205" si="21">K193*60</f>
         <v>38.516666666666666</v>
       </c>
-      <c r="N193" s="118"/>
+      <c r="N193" s="144"/>
       <c r="O193" s="77">
         <f t="shared" ref="O193:O205" si="22">AVERAGE(W193,AB193,AG193,AL193,AQ193,AV193)/1000</f>
         <v>0.84450000000000003</v>
@@ -23558,30 +23926,30 @@
       <c r="BT193"/>
     </row>
     <row r="194" spans="2:72" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="132"/>
-      <c r="C194" s="133"/>
+      <c r="B194" s="148"/>
+      <c r="C194" s="149"/>
       <c r="D194" s="82"/>
-      <c r="E194" s="112">
+      <c r="E194" s="141">
         <v>10</v>
       </c>
-      <c r="F194" s="112"/>
-      <c r="G194" s="112">
+      <c r="F194" s="141"/>
+      <c r="G194" s="141">
         <f t="shared" ref="G194:G199" si="24">E194*60</f>
         <v>600</v>
       </c>
-      <c r="H194" s="112"/>
-      <c r="I194" s="112"/>
-      <c r="J194" s="112"/>
-      <c r="K194" s="116">
+      <c r="H194" s="141"/>
+      <c r="I194" s="141"/>
+      <c r="J194" s="141"/>
+      <c r="K194" s="142">
         <f t="shared" si="20"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="L194" s="117"/>
-      <c r="M194" s="118">
+      <c r="L194" s="143"/>
+      <c r="M194" s="144">
         <f t="shared" si="21"/>
         <v>66</v>
       </c>
-      <c r="N194" s="118"/>
+      <c r="N194" s="144"/>
       <c r="O194" s="77">
         <f t="shared" si="22"/>
         <v>1.1246666666666667</v>
@@ -23720,30 +24088,30 @@
       <c r="BT194"/>
     </row>
     <row r="195" spans="2:72" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="132"/>
-      <c r="C195" s="133"/>
+      <c r="B195" s="148"/>
+      <c r="C195" s="149"/>
       <c r="D195" s="82"/>
-      <c r="E195" s="112">
+      <c r="E195" s="141">
         <v>20</v>
       </c>
-      <c r="F195" s="112"/>
-      <c r="G195" s="112">
+      <c r="F195" s="141"/>
+      <c r="G195" s="141">
         <f t="shared" si="24"/>
         <v>1200</v>
       </c>
-      <c r="H195" s="112"/>
-      <c r="I195" s="112"/>
-      <c r="J195" s="112"/>
-      <c r="K195" s="116">
+      <c r="H195" s="141"/>
+      <c r="I195" s="141"/>
+      <c r="J195" s="141"/>
+      <c r="K195" s="142">
         <f t="shared" si="20"/>
         <v>1.8666666666666665</v>
       </c>
-      <c r="L195" s="117"/>
-      <c r="M195" s="118">
+      <c r="L195" s="143"/>
+      <c r="M195" s="144">
         <f t="shared" si="21"/>
         <v>111.99999999999999</v>
       </c>
-      <c r="N195" s="118"/>
+      <c r="N195" s="144"/>
       <c r="O195" s="77">
         <f t="shared" si="22"/>
         <v>2.0546666666666664</v>
@@ -23882,30 +24250,30 @@
       <c r="BT195"/>
     </row>
     <row r="196" spans="2:72" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B196" s="132"/>
-      <c r="C196" s="133"/>
+      <c r="B196" s="148"/>
+      <c r="C196" s="149"/>
       <c r="D196" s="82"/>
-      <c r="E196" s="112">
+      <c r="E196" s="141">
         <v>50</v>
       </c>
-      <c r="F196" s="112"/>
-      <c r="G196" s="112">
+      <c r="F196" s="141"/>
+      <c r="G196" s="141">
         <f t="shared" si="24"/>
         <v>3000</v>
       </c>
-      <c r="H196" s="112"/>
-      <c r="I196" s="112"/>
-      <c r="J196" s="112"/>
-      <c r="K196" s="116">
+      <c r="H196" s="141"/>
+      <c r="I196" s="141"/>
+      <c r="J196" s="141"/>
+      <c r="K196" s="142">
         <f t="shared" si="20"/>
         <v>3.3833333333333333</v>
       </c>
-      <c r="L196" s="117"/>
-      <c r="M196" s="118">
+      <c r="L196" s="143"/>
+      <c r="M196" s="144">
         <f t="shared" si="21"/>
         <v>203</v>
       </c>
-      <c r="N196" s="118"/>
+      <c r="N196" s="144"/>
       <c r="O196" s="77">
         <f t="shared" si="22"/>
         <v>6.5071666666666665</v>
@@ -24044,30 +24412,30 @@
       <c r="BT196"/>
     </row>
     <row r="197" spans="2:72" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="132"/>
-      <c r="C197" s="133"/>
+      <c r="B197" s="148"/>
+      <c r="C197" s="149"/>
       <c r="D197" s="83"/>
-      <c r="E197" s="113">
+      <c r="E197" s="152">
         <v>80</v>
       </c>
-      <c r="F197" s="113"/>
-      <c r="G197" s="113">
+      <c r="F197" s="152"/>
+      <c r="G197" s="152">
         <f t="shared" si="24"/>
         <v>4800</v>
       </c>
-      <c r="H197" s="113"/>
-      <c r="I197" s="113"/>
-      <c r="J197" s="113"/>
-      <c r="K197" s="116">
+      <c r="H197" s="152"/>
+      <c r="I197" s="152"/>
+      <c r="J197" s="152"/>
+      <c r="K197" s="142">
         <f t="shared" si="20"/>
         <v>3.9999999999999996</v>
       </c>
-      <c r="L197" s="117"/>
-      <c r="M197" s="118">
+      <c r="L197" s="143"/>
+      <c r="M197" s="144">
         <f t="shared" si="21"/>
         <v>239.99999999999997</v>
       </c>
-      <c r="N197" s="118"/>
+      <c r="N197" s="144"/>
       <c r="O197" s="77">
         <f t="shared" si="22"/>
         <v>10.431166666666666</v>
@@ -24200,30 +24568,30 @@
       <c r="BT197"/>
     </row>
     <row r="198" spans="2:72" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B198" s="132"/>
-      <c r="C198" s="133"/>
+      <c r="B198" s="148"/>
+      <c r="C198" s="149"/>
       <c r="D198" s="82"/>
-      <c r="E198" s="112">
+      <c r="E198" s="141">
         <v>100</v>
       </c>
-      <c r="F198" s="112"/>
-      <c r="G198" s="112">
+      <c r="F198" s="141"/>
+      <c r="G198" s="141">
         <f t="shared" si="24"/>
         <v>6000</v>
       </c>
-      <c r="H198" s="112"/>
-      <c r="I198" s="112"/>
-      <c r="J198" s="112"/>
-      <c r="K198" s="116">
+      <c r="H198" s="141"/>
+      <c r="I198" s="141"/>
+      <c r="J198" s="141"/>
+      <c r="K198" s="142">
         <f t="shared" si="20"/>
         <v>3.9833333333333338</v>
       </c>
-      <c r="L198" s="117"/>
-      <c r="M198" s="118">
+      <c r="L198" s="143"/>
+      <c r="M198" s="144">
         <f t="shared" si="21"/>
         <v>239.00000000000003</v>
       </c>
-      <c r="N198" s="118"/>
+      <c r="N198" s="144"/>
       <c r="O198" s="77">
         <f t="shared" si="22"/>
         <v>13.052833333333334</v>
@@ -24362,30 +24730,30 @@
       <c r="BT198"/>
     </row>
     <row r="199" spans="2:72" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="132"/>
-      <c r="C199" s="133"/>
+      <c r="B199" s="148"/>
+      <c r="C199" s="149"/>
       <c r="D199" s="82"/>
-      <c r="E199" s="112">
+      <c r="E199" s="141">
         <v>125</v>
       </c>
-      <c r="F199" s="112"/>
-      <c r="G199" s="112">
+      <c r="F199" s="141"/>
+      <c r="G199" s="141">
         <f t="shared" si="24"/>
         <v>7500</v>
       </c>
-      <c r="H199" s="112"/>
-      <c r="I199" s="112"/>
-      <c r="J199" s="112"/>
-      <c r="K199" s="116">
+      <c r="H199" s="141"/>
+      <c r="I199" s="141"/>
+      <c r="J199" s="141"/>
+      <c r="K199" s="142">
         <f t="shared" si="20"/>
         <v>4.583333333333333</v>
       </c>
-      <c r="L199" s="117"/>
-      <c r="M199" s="118">
+      <c r="L199" s="143"/>
+      <c r="M199" s="144">
         <f t="shared" si="21"/>
         <v>275</v>
       </c>
-      <c r="N199" s="118"/>
+      <c r="N199" s="144"/>
       <c r="O199" s="77">
         <f t="shared" si="22"/>
         <v>16.633333333333333</v>
@@ -24524,30 +24892,30 @@
       <c r="BT199"/>
     </row>
     <row r="200" spans="2:72" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B200" s="132"/>
-      <c r="C200" s="133"/>
+      <c r="B200" s="148"/>
+      <c r="C200" s="149"/>
       <c r="D200" s="82"/>
-      <c r="E200" s="112">
+      <c r="E200" s="141">
         <v>150</v>
       </c>
-      <c r="F200" s="112"/>
-      <c r="G200" s="112">
+      <c r="F200" s="141"/>
+      <c r="G200" s="141">
         <f t="shared" ref="G200:G205" si="25">E200*60</f>
         <v>9000</v>
       </c>
-      <c r="H200" s="112"/>
-      <c r="I200" s="112"/>
-      <c r="J200" s="112"/>
-      <c r="K200" s="116">
+      <c r="H200" s="141"/>
+      <c r="I200" s="141"/>
+      <c r="J200" s="141"/>
+      <c r="K200" s="142">
         <f t="shared" si="20"/>
         <v>4.3999999999999995</v>
       </c>
-      <c r="L200" s="117"/>
-      <c r="M200" s="118">
+      <c r="L200" s="143"/>
+      <c r="M200" s="144">
         <f t="shared" si="21"/>
         <v>263.99999999999994</v>
       </c>
-      <c r="N200" s="118"/>
+      <c r="N200" s="144"/>
       <c r="O200" s="77">
         <f t="shared" si="22"/>
         <v>22.99516666666667</v>
@@ -24686,30 +25054,30 @@
       <c r="BT200"/>
     </row>
     <row r="201" spans="2:72" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B201" s="132"/>
-      <c r="C201" s="133"/>
+      <c r="B201" s="148"/>
+      <c r="C201" s="149"/>
       <c r="D201" s="82"/>
-      <c r="E201" s="112">
+      <c r="E201" s="141">
         <v>200</v>
       </c>
-      <c r="F201" s="112"/>
-      <c r="G201" s="112">
+      <c r="F201" s="141"/>
+      <c r="G201" s="141">
         <f t="shared" si="25"/>
         <v>12000</v>
       </c>
-      <c r="H201" s="112"/>
-      <c r="I201" s="112"/>
-      <c r="J201" s="112"/>
-      <c r="K201" s="116">
+      <c r="H201" s="141"/>
+      <c r="I201" s="141"/>
+      <c r="J201" s="141"/>
+      <c r="K201" s="142">
         <f t="shared" si="20"/>
         <v>4.6333333333333329</v>
       </c>
-      <c r="L201" s="117"/>
-      <c r="M201" s="118">
+      <c r="L201" s="143"/>
+      <c r="M201" s="144">
         <f t="shared" si="21"/>
         <v>278</v>
       </c>
-      <c r="N201" s="118"/>
+      <c r="N201" s="144"/>
       <c r="O201" s="77">
         <f t="shared" si="22"/>
         <v>29.481000000000002</v>
@@ -24848,30 +25216,30 @@
       <c r="BT201"/>
     </row>
     <row r="202" spans="2:72" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B202" s="132"/>
-      <c r="C202" s="133"/>
+      <c r="B202" s="148"/>
+      <c r="C202" s="149"/>
       <c r="D202" s="86"/>
-      <c r="E202" s="112">
+      <c r="E202" s="141">
         <v>300</v>
       </c>
-      <c r="F202" s="112"/>
-      <c r="G202" s="112">
+      <c r="F202" s="141"/>
+      <c r="G202" s="141">
         <f t="shared" ref="G202" si="26">E202*60</f>
         <v>18000</v>
       </c>
-      <c r="H202" s="112"/>
-      <c r="I202" s="112"/>
-      <c r="J202" s="112"/>
-      <c r="K202" s="116">
+      <c r="H202" s="141"/>
+      <c r="I202" s="141"/>
+      <c r="J202" s="141"/>
+      <c r="K202" s="142">
         <f t="shared" ref="K202" si="27">AVERAGE(V202,AA202,AF202,AK202,AP202,AU202)</f>
         <v>5.0166666666666666</v>
       </c>
-      <c r="L202" s="117"/>
-      <c r="M202" s="118">
+      <c r="L202" s="143"/>
+      <c r="M202" s="144">
         <f t="shared" ref="M202" si="28">K202*60</f>
         <v>301</v>
       </c>
-      <c r="N202" s="118"/>
+      <c r="N202" s="144"/>
       <c r="O202" s="77">
         <f t="shared" ref="O202" si="29">AVERAGE(W202,AB202,AG202,AL202,AQ202,AV202)/1000</f>
         <v>41.900333333333336</v>
@@ -25010,30 +25378,30 @@
       <c r="BT202"/>
     </row>
     <row r="203" spans="2:72" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B203" s="132"/>
-      <c r="C203" s="133"/>
+      <c r="B203" s="148"/>
+      <c r="C203" s="149"/>
       <c r="D203" s="86"/>
-      <c r="E203" s="112">
+      <c r="E203" s="141">
         <v>400</v>
       </c>
-      <c r="F203" s="112"/>
-      <c r="G203" s="112">
+      <c r="F203" s="141"/>
+      <c r="G203" s="141">
         <f t="shared" ref="G203" si="33">E203*60</f>
         <v>24000</v>
       </c>
-      <c r="H203" s="112"/>
-      <c r="I203" s="112"/>
-      <c r="J203" s="112"/>
-      <c r="K203" s="116">
+      <c r="H203" s="141"/>
+      <c r="I203" s="141"/>
+      <c r="J203" s="141"/>
+      <c r="K203" s="142">
         <f t="shared" ref="K203" si="34">AVERAGE(V203,AA203,AF203,AK203,AP203,AU203)</f>
         <v>5.2666666666666666</v>
       </c>
-      <c r="L203" s="117"/>
-      <c r="M203" s="118">
+      <c r="L203" s="143"/>
+      <c r="M203" s="144">
         <f t="shared" ref="M203" si="35">K203*60</f>
         <v>316</v>
       </c>
-      <c r="N203" s="118"/>
+      <c r="N203" s="144"/>
       <c r="O203" s="77">
         <f t="shared" ref="O203" si="36">AVERAGE(W203,AB203,AG203,AL203,AQ203,AV203)/1000</f>
         <v>130.19283333333334</v>
@@ -25172,30 +25540,30 @@
       <c r="BT203"/>
     </row>
     <row r="204" spans="2:72" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="132"/>
-      <c r="C204" s="133"/>
+      <c r="B204" s="148"/>
+      <c r="C204" s="149"/>
       <c r="D204" s="86"/>
-      <c r="E204" s="112">
+      <c r="E204" s="141">
         <v>500</v>
       </c>
-      <c r="F204" s="112"/>
-      <c r="G204" s="112">
+      <c r="F204" s="141"/>
+      <c r="G204" s="141">
         <f t="shared" ref="G204" si="40">E204*60</f>
         <v>30000</v>
       </c>
-      <c r="H204" s="112"/>
-      <c r="I204" s="112"/>
-      <c r="J204" s="112"/>
-      <c r="K204" s="116">
+      <c r="H204" s="141"/>
+      <c r="I204" s="141"/>
+      <c r="J204" s="141"/>
+      <c r="K204" s="142">
         <f t="shared" ref="K204" si="41">AVERAGE(V204,AA204,AF204,AK204,AP204,AU204)</f>
         <v>5.0333333333333332</v>
       </c>
-      <c r="L204" s="117"/>
-      <c r="M204" s="118">
+      <c r="L204" s="143"/>
+      <c r="M204" s="144">
         <f t="shared" ref="M204" si="42">K204*60</f>
         <v>302</v>
       </c>
-      <c r="N204" s="118"/>
+      <c r="N204" s="144"/>
       <c r="O204" s="77">
         <f t="shared" ref="O204" si="43">AVERAGE(W204,AB204,AG204,AL204,AQ204,AV204)/1000</f>
         <v>70.992666666666665</v>
@@ -25334,30 +25702,30 @@
       <c r="BT204"/>
     </row>
     <row r="205" spans="2:72" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B205" s="134"/>
-      <c r="C205" s="135"/>
+      <c r="B205" s="150"/>
+      <c r="C205" s="151"/>
       <c r="D205" s="82"/>
-      <c r="E205" s="112">
+      <c r="E205" s="141">
         <v>800</v>
       </c>
-      <c r="F205" s="112"/>
-      <c r="G205" s="112">
+      <c r="F205" s="141"/>
+      <c r="G205" s="141">
         <f t="shared" si="25"/>
         <v>48000</v>
       </c>
-      <c r="H205" s="112"/>
-      <c r="I205" s="112"/>
-      <c r="J205" s="112"/>
-      <c r="K205" s="116">
+      <c r="H205" s="141"/>
+      <c r="I205" s="141"/>
+      <c r="J205" s="141"/>
+      <c r="K205" s="142">
         <f t="shared" si="20"/>
         <v>4.5999999999999996</v>
       </c>
-      <c r="L205" s="117"/>
-      <c r="M205" s="118">
+      <c r="L205" s="143"/>
+      <c r="M205" s="144">
         <f t="shared" si="21"/>
         <v>276</v>
       </c>
-      <c r="N205" s="118"/>
+      <c r="N205" s="144"/>
       <c r="O205" s="77">
         <f t="shared" si="22"/>
         <v>130.51374999999999</v>
@@ -25479,60 +25847,60 @@
       <c r="A252" s="111" t="s">
         <v>249</v>
       </c>
-      <c r="B252" s="114" t="s">
+      <c r="B252" s="153" t="s">
         <v>247</v>
       </c>
-      <c r="C252" s="114"/>
-      <c r="D252" s="114"/>
-      <c r="E252" s="114"/>
-      <c r="F252" s="114"/>
-      <c r="G252" s="114"/>
-      <c r="H252" s="114"/>
-      <c r="I252" s="114"/>
-      <c r="J252" s="114"/>
-      <c r="K252" s="114"/>
-      <c r="L252" s="114"/>
-      <c r="M252" s="114"/>
-      <c r="N252" s="114"/>
-      <c r="O252" s="114"/>
-      <c r="P252" s="114"/>
-      <c r="Q252" s="114"/>
-      <c r="R252" s="114"/>
-      <c r="S252" s="114"/>
-      <c r="T252" s="114"/>
-      <c r="U252" s="114"/>
-      <c r="V252" s="114"/>
-      <c r="W252" s="114"/>
+      <c r="C252" s="153"/>
+      <c r="D252" s="153"/>
+      <c r="E252" s="153"/>
+      <c r="F252" s="153"/>
+      <c r="G252" s="153"/>
+      <c r="H252" s="153"/>
+      <c r="I252" s="153"/>
+      <c r="J252" s="153"/>
+      <c r="K252" s="153"/>
+      <c r="L252" s="153"/>
+      <c r="M252" s="153"/>
+      <c r="N252" s="153"/>
+      <c r="O252" s="153"/>
+      <c r="P252" s="153"/>
+      <c r="Q252" s="153"/>
+      <c r="R252" s="153"/>
+      <c r="S252" s="153"/>
+      <c r="T252" s="153"/>
+      <c r="U252" s="153"/>
+      <c r="V252" s="153"/>
+      <c r="W252" s="153"/>
     </row>
     <row r="253" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A253" s="111" t="s">
         <v>250</v>
       </c>
-      <c r="B253" s="114"/>
-      <c r="C253" s="114"/>
-      <c r="D253" s="114"/>
-      <c r="E253" s="114"/>
-      <c r="F253" s="114"/>
-      <c r="G253" s="114"/>
-      <c r="H253" s="114"/>
-      <c r="I253" s="114"/>
-      <c r="J253" s="114"/>
-      <c r="K253" s="114"/>
-      <c r="L253" s="114"/>
-      <c r="M253" s="114"/>
-      <c r="N253" s="114"/>
-      <c r="O253" s="114"/>
-      <c r="P253" s="114"/>
-      <c r="Q253" s="114"/>
-      <c r="R253" s="114"/>
-      <c r="S253" s="114"/>
-      <c r="T253" s="114"/>
-      <c r="U253" s="114"/>
-      <c r="V253" s="114"/>
-      <c r="W253" s="114"/>
+      <c r="B253" s="153"/>
+      <c r="C253" s="153"/>
+      <c r="D253" s="153"/>
+      <c r="E253" s="153"/>
+      <c r="F253" s="153"/>
+      <c r="G253" s="153"/>
+      <c r="H253" s="153"/>
+      <c r="I253" s="153"/>
+      <c r="J253" s="153"/>
+      <c r="K253" s="153"/>
+      <c r="L253" s="153"/>
+      <c r="M253" s="153"/>
+      <c r="N253" s="153"/>
+      <c r="O253" s="153"/>
+      <c r="P253" s="153"/>
+      <c r="Q253" s="153"/>
+      <c r="R253" s="153"/>
+      <c r="S253" s="153"/>
+      <c r="T253" s="153"/>
+      <c r="U253" s="153"/>
+      <c r="V253" s="153"/>
+      <c r="W253" s="153"/>
     </row>
     <row r="256" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B256" s="152" t="s">
+      <c r="B256" s="128" t="s">
         <v>253</v>
       </c>
       <c r="C256" t="s">
@@ -25555,12 +25923,12 @@
       <c r="A258" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="B258" s="153">
-        <f>C112</f>
+      <c r="B258" s="129">
+        <f t="shared" ref="B258:B264" si="47">C112</f>
         <v>422.5646666666666</v>
       </c>
       <c r="C258" s="60">
-        <f>C16</f>
+        <f t="shared" ref="C258:C264" si="48">C16</f>
         <v>413.14464000000004</v>
       </c>
       <c r="D258" s="105" t="s">
@@ -25571,12 +25939,12 @@
       <c r="A259" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="B259" s="154">
-        <f>C113</f>
+      <c r="B259" s="130">
+        <f t="shared" si="47"/>
         <v>461.60600000000005</v>
       </c>
       <c r="C259" s="62">
-        <f>C17</f>
+        <f t="shared" si="48"/>
         <v>448.80933333333343</v>
       </c>
       <c r="D259" s="28" t="s">
@@ -25587,12 +25955,12 @@
       <c r="A260" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="B260" s="155">
-        <f>C114</f>
+      <c r="B260" s="131">
+        <f t="shared" si="47"/>
         <v>393.83333333333331</v>
       </c>
-      <c r="C260" s="137">
-        <f>C18</f>
+      <c r="C260" s="113">
+        <f t="shared" si="48"/>
         <v>425.41066666666671</v>
       </c>
       <c r="D260" s="36" t="s">
@@ -25603,12 +25971,12 @@
       <c r="A261" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="B261" s="156">
-        <f>C115</f>
+      <c r="B261" s="132">
+        <f t="shared" si="47"/>
         <v>922.49199999999996</v>
       </c>
       <c r="C261" s="66">
-        <f>C19</f>
+        <f t="shared" si="48"/>
         <v>965.69399999999996</v>
       </c>
       <c r="D261" s="30" t="s">
@@ -25619,12 +25987,12 @@
       <c r="A262" s="39" t="s">
         <v>186</v>
       </c>
-      <c r="B262" s="157">
-        <f>C116</f>
+      <c r="B262" s="133">
+        <f t="shared" si="47"/>
         <v>271.08600000000001</v>
       </c>
       <c r="C262" s="67">
-        <f>C20</f>
+        <f t="shared" si="48"/>
         <v>85.539333333333332</v>
       </c>
       <c r="D262" s="40" t="s">
@@ -25635,12 +26003,12 @@
       <c r="A263" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B263" s="158">
-        <f>C117</f>
+      <c r="B263" s="134">
+        <f t="shared" si="47"/>
         <v>135.51633333333334</v>
       </c>
-      <c r="C263" s="138">
-        <f>C21</f>
+      <c r="C263" s="114">
+        <f t="shared" si="48"/>
         <v>77.831666666666649</v>
       </c>
       <c r="D263" s="104" t="s">
@@ -25651,12 +26019,12 @@
       <c r="A264" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="B264" s="159">
-        <f>C118</f>
+      <c r="B264" s="135">
+        <f t="shared" si="47"/>
         <v>96.589333333333329</v>
       </c>
       <c r="C264" s="71">
-        <f>C22</f>
+        <f t="shared" si="48"/>
         <v>57.243666666666662</v>
       </c>
       <c r="D264" s="42" t="s">
@@ -25664,57 +26032,57 @@
       </c>
     </row>
     <row r="289" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B289" s="115" t="s">
+      <c r="B289" s="137" t="s">
         <v>228</v>
       </c>
-      <c r="C289" s="115"/>
-      <c r="D289" s="115" t="s">
+      <c r="C289" s="137"/>
+      <c r="D289" s="137" t="s">
         <v>217</v>
       </c>
-      <c r="E289" s="115"/>
-      <c r="F289" s="139" t="s">
+      <c r="E289" s="137"/>
+      <c r="F289" s="115" t="s">
         <v>218</v>
       </c>
       <c r="G289" s="102" t="s">
         <v>218</v>
       </c>
-      <c r="H289" s="141" t="s">
+      <c r="H289" s="117" t="s">
         <v>243</v>
       </c>
       <c r="I289" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="J289" s="143" t="s">
+      <c r="J289" s="119" t="s">
         <v>242</v>
       </c>
       <c r="K289" s="90" t="s">
         <v>242</v>
       </c>
-      <c r="L289" s="145" t="s">
+      <c r="L289" s="121" t="s">
         <v>240</v>
       </c>
       <c r="M289" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="N289" s="147" t="s">
+      <c r="N289" s="123" t="s">
         <v>241</v>
       </c>
       <c r="O289" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="P289" s="149" t="s">
+      <c r="P289" s="125" t="s">
         <v>244</v>
       </c>
       <c r="Q289" s="33" t="s">
         <v>244</v>
       </c>
-      <c r="R289" s="150" t="s">
+      <c r="R289" s="126" t="s">
         <v>245</v>
       </c>
       <c r="S289" s="101" t="s">
         <v>245</v>
       </c>
-      <c r="T289" s="151" t="s">
+      <c r="T289" s="127" t="s">
         <v>177</v>
       </c>
       <c r="U289" s="32" t="s">
@@ -25722,1067 +26090,1248 @@
       </c>
     </row>
     <row r="290" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B290" s="112">
+      <c r="B290" s="141">
         <v>1</v>
       </c>
-      <c r="C290" s="112"/>
-      <c r="D290" s="112">
+      <c r="C290" s="141"/>
+      <c r="D290" s="141">
         <f>B290*60</f>
         <v>60</v>
       </c>
-      <c r="E290" s="112"/>
-      <c r="F290" s="140">
-        <f>M192</f>
+      <c r="E290" s="141"/>
+      <c r="F290" s="116">
+        <f t="shared" ref="F290:F303" si="49">M192</f>
         <v>9.1333333333333346</v>
       </c>
       <c r="G290" s="107">
-        <f>M33</f>
+        <f t="shared" ref="G290:G303" si="50">M33</f>
         <v>9.3833333333333329</v>
       </c>
-      <c r="H290" s="142">
-        <f>O192</f>
+      <c r="H290" s="118">
+        <f t="shared" ref="H290:H303" si="51">O192</f>
         <v>0.66300000000000003</v>
       </c>
       <c r="I290" s="77">
-        <f>O33</f>
+        <f t="shared" ref="I290:I303" si="52">O33</f>
         <v>0.64349999999999996</v>
       </c>
-      <c r="J290" s="144">
-        <f>P192</f>
+      <c r="J290" s="120">
+        <f t="shared" ref="J290:J303" si="53">P192</f>
         <v>0.97799999999999998</v>
       </c>
       <c r="K290" s="91">
-        <f>P33</f>
+        <f t="shared" ref="K290:K303" si="54">P33</f>
         <v>1.0791666666666668</v>
       </c>
-      <c r="L290" s="146">
-        <f>Q192</f>
+      <c r="L290" s="122">
+        <f t="shared" ref="L290:L303" si="55">Q192</f>
         <v>14.333333333333334</v>
       </c>
       <c r="M290" s="98">
-        <f>Q33</f>
+        <f t="shared" ref="M290:M303" si="56">Q33</f>
         <v>30.666666666666668</v>
       </c>
-      <c r="N290" s="148">
-        <f>R192</f>
+      <c r="N290" s="124">
+        <f t="shared" ref="N290:N303" si="57">R192</f>
         <v>2.2036666666666664</v>
       </c>
       <c r="O290" s="78">
-        <f>R33</f>
+        <f t="shared" ref="O290:O303" si="58">R33</f>
         <v>1.8493333333333333</v>
       </c>
-      <c r="P290" s="149">
-        <f>S192</f>
+      <c r="P290" s="125">
+        <f t="shared" ref="P290:P303" si="59">S192</f>
         <v>2.7</v>
       </c>
       <c r="Q290" s="46">
-        <f>S33</f>
+        <f t="shared" ref="Q290:Q303" si="60">S33</f>
         <v>4.8</v>
       </c>
-      <c r="R290" s="150">
-        <f>T192</f>
+      <c r="R290" s="126">
+        <f t="shared" ref="R290:R303" si="61">T192</f>
         <v>533</v>
       </c>
       <c r="S290" s="100">
-        <f>T33</f>
+        <f t="shared" ref="S290:S303" si="62">T33</f>
         <v>353</v>
       </c>
-      <c r="T290" s="151">
-        <f>U192</f>
+      <c r="T290" s="127">
+        <f t="shared" ref="T290:T303" si="63">U192</f>
         <v>51</v>
       </c>
       <c r="U290" s="47">
-        <f>U33</f>
+        <f t="shared" ref="U290:U303" si="64">U33</f>
         <v>51</v>
       </c>
     </row>
     <row r="291" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B291" s="112">
+      <c r="B291" s="141">
         <v>5</v>
       </c>
-      <c r="C291" s="112"/>
-      <c r="D291" s="112">
+      <c r="C291" s="141"/>
+      <c r="D291" s="141">
         <f>B291*60</f>
         <v>300</v>
       </c>
-      <c r="E291" s="112"/>
-      <c r="F291" s="140">
-        <f>M193</f>
+      <c r="E291" s="141"/>
+      <c r="F291" s="116">
+        <f t="shared" si="49"/>
         <v>38.516666666666666</v>
       </c>
       <c r="G291" s="107">
-        <f>M34</f>
+        <f t="shared" si="50"/>
         <v>38.149999999999991</v>
       </c>
-      <c r="H291" s="142">
-        <f>O193</f>
+      <c r="H291" s="118">
+        <f t="shared" si="51"/>
         <v>0.84450000000000003</v>
       </c>
       <c r="I291" s="77">
-        <f>O34</f>
+        <f t="shared" si="52"/>
         <v>0.85599999999999998</v>
       </c>
-      <c r="J291" s="144">
-        <f>P193</f>
+      <c r="J291" s="120">
+        <f t="shared" si="53"/>
         <v>2.6915</v>
       </c>
       <c r="K291" s="91">
-        <f>P34</f>
+        <f t="shared" si="54"/>
         <v>2.4744999999999999</v>
       </c>
-      <c r="L291" s="146">
-        <f>Q193</f>
+      <c r="L291" s="122">
+        <f t="shared" si="55"/>
         <v>7.666666666666667</v>
       </c>
       <c r="M291" s="98">
-        <f>Q34</f>
+        <f t="shared" si="56"/>
         <v>4.666666666666667</v>
       </c>
-      <c r="N291" s="148">
-        <f>R193</f>
+      <c r="N291" s="124">
+        <f t="shared" si="57"/>
         <v>4.9424999999999999</v>
       </c>
       <c r="O291" s="78">
-        <f>R34</f>
+        <f t="shared" si="58"/>
         <v>4.2743333333333329</v>
       </c>
-      <c r="P291" s="149">
-        <f>S193</f>
+      <c r="P291" s="125">
+        <f t="shared" si="59"/>
         <v>6.2</v>
       </c>
       <c r="Q291" s="46">
-        <f>S34</f>
+        <f t="shared" si="60"/>
         <v>5.4</v>
       </c>
-      <c r="R291" s="150">
-        <f>T193</f>
+      <c r="R291" s="126">
+        <f t="shared" si="61"/>
         <v>564</v>
       </c>
       <c r="S291" s="100">
-        <f>T34</f>
+        <f t="shared" si="62"/>
         <v>358</v>
       </c>
-      <c r="T291" s="151">
-        <f>U193</f>
+      <c r="T291" s="127">
+        <f t="shared" si="63"/>
         <v>55</v>
       </c>
       <c r="U291" s="47">
-        <f>U34</f>
+        <f t="shared" si="64"/>
         <v>51</v>
       </c>
     </row>
     <row r="292" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B292" s="112">
+      <c r="B292" s="141">
         <v>10</v>
       </c>
-      <c r="C292" s="112"/>
-      <c r="D292" s="112">
-        <f t="shared" ref="D292:D303" si="47">B292*60</f>
+      <c r="C292" s="141"/>
+      <c r="D292" s="141">
+        <f t="shared" ref="D292:D303" si="65">B292*60</f>
         <v>600</v>
       </c>
-      <c r="E292" s="112"/>
-      <c r="F292" s="140">
-        <f>M194</f>
+      <c r="E292" s="141"/>
+      <c r="F292" s="116">
+        <f t="shared" si="49"/>
         <v>66</v>
       </c>
       <c r="G292" s="107">
-        <f>M35</f>
+        <f t="shared" si="50"/>
         <v>64.72</v>
       </c>
-      <c r="H292" s="142">
-        <f>O194</f>
+      <c r="H292" s="118">
+        <f t="shared" si="51"/>
         <v>1.1246666666666667</v>
       </c>
       <c r="I292" s="77">
-        <f>O35</f>
+        <f t="shared" si="52"/>
         <v>1.1612</v>
       </c>
-      <c r="J292" s="144">
-        <f>P194</f>
+      <c r="J292" s="120">
+        <f t="shared" si="53"/>
         <v>3.6389999999999998</v>
       </c>
       <c r="K292" s="91">
-        <f>P35</f>
+        <f t="shared" si="54"/>
         <v>3.8008000000000002</v>
       </c>
-      <c r="L292" s="146">
-        <f>Q194</f>
+      <c r="L292" s="122">
+        <f t="shared" si="55"/>
         <v>4.833333333333333</v>
       </c>
       <c r="M292" s="98">
-        <f>Q35</f>
+        <f t="shared" si="56"/>
         <v>4</v>
       </c>
-      <c r="N292" s="148">
-        <f>R194</f>
+      <c r="N292" s="124">
+        <f t="shared" si="57"/>
         <v>7.5871666666666666</v>
       </c>
       <c r="O292" s="78">
-        <f>R35</f>
+        <f t="shared" si="58"/>
         <v>8.1131999999999991</v>
       </c>
-      <c r="P292" s="149">
-        <f>S194</f>
+      <c r="P292" s="125">
+        <f t="shared" si="59"/>
         <v>6</v>
       </c>
       <c r="Q292" s="46">
-        <f>S35</f>
+        <f t="shared" si="60"/>
         <v>9</v>
       </c>
-      <c r="R292" s="150">
-        <f>T194</f>
+      <c r="R292" s="126">
+        <f t="shared" si="61"/>
         <v>619</v>
       </c>
       <c r="S292" s="100">
-        <f>T35</f>
+        <f t="shared" si="62"/>
         <v>377</v>
       </c>
-      <c r="T292" s="151">
-        <f>U194</f>
+      <c r="T292" s="127">
+        <f t="shared" si="63"/>
         <v>57</v>
       </c>
       <c r="U292" s="47">
-        <f>U35</f>
+        <f t="shared" si="64"/>
         <v>53</v>
       </c>
     </row>
     <row r="293" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B293" s="112">
+      <c r="B293" s="141">
         <v>20</v>
       </c>
-      <c r="C293" s="112"/>
-      <c r="D293" s="112">
-        <f t="shared" si="47"/>
+      <c r="C293" s="141"/>
+      <c r="D293" s="141">
+        <f t="shared" si="65"/>
         <v>1200</v>
       </c>
-      <c r="E293" s="112"/>
-      <c r="F293" s="140">
-        <f>M195</f>
+      <c r="E293" s="141"/>
+      <c r="F293" s="116">
+        <f t="shared" si="49"/>
         <v>111.99999999999999</v>
       </c>
       <c r="G293" s="107">
-        <f>M36</f>
+        <f t="shared" si="50"/>
         <v>119</v>
       </c>
-      <c r="H293" s="142">
-        <f>O195</f>
+      <c r="H293" s="118">
+        <f t="shared" si="51"/>
         <v>2.0546666666666664</v>
       </c>
       <c r="I293" s="77">
-        <f>O36</f>
+        <f t="shared" si="52"/>
         <v>1.8898333333333333</v>
       </c>
-      <c r="J293" s="144">
-        <f>P195</f>
+      <c r="J293" s="120">
+        <f t="shared" si="53"/>
         <v>6.3123333333333331</v>
       </c>
       <c r="K293" s="91">
-        <f>P36</f>
+        <f t="shared" si="54"/>
         <v>6.4483333333333333</v>
       </c>
-      <c r="L293" s="146">
-        <f>Q195</f>
+      <c r="L293" s="122">
+        <f t="shared" si="55"/>
         <v>5.166666666666667</v>
       </c>
       <c r="M293" s="98">
-        <f>Q36</f>
+        <f t="shared" si="56"/>
         <v>3.6666666666666665</v>
       </c>
-      <c r="N293" s="148">
-        <f>R195</f>
+      <c r="N293" s="124">
+        <f t="shared" si="57"/>
         <v>16.553833333333333</v>
       </c>
       <c r="O293" s="78">
-        <f>R36</f>
+        <f t="shared" si="58"/>
         <v>14.047666666666666</v>
       </c>
-      <c r="P293" s="149">
-        <f>S195</f>
+      <c r="P293" s="125">
+        <f t="shared" si="59"/>
         <v>11.4</v>
       </c>
       <c r="Q293" s="46">
-        <f>S36</f>
+        <f t="shared" si="60"/>
         <v>12.2</v>
       </c>
-      <c r="R293" s="150">
-        <f>T195</f>
+      <c r="R293" s="126">
+        <f t="shared" si="61"/>
         <v>672</v>
       </c>
       <c r="S293" s="100">
-        <f>T36</f>
+        <f t="shared" si="62"/>
         <v>424</v>
       </c>
-      <c r="T293" s="151">
-        <f>U195</f>
+      <c r="T293" s="127">
+        <f t="shared" si="63"/>
         <v>58</v>
       </c>
       <c r="U293" s="47">
-        <f>U36</f>
+        <f t="shared" si="64"/>
         <v>62</v>
       </c>
     </row>
     <row r="294" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B294" s="112">
+      <c r="B294" s="141">
         <v>50</v>
       </c>
-      <c r="C294" s="112"/>
-      <c r="D294" s="112">
-        <f t="shared" si="47"/>
+      <c r="C294" s="141"/>
+      <c r="D294" s="141">
+        <f t="shared" si="65"/>
         <v>3000</v>
       </c>
-      <c r="E294" s="112"/>
-      <c r="F294" s="140">
-        <f>M196</f>
+      <c r="E294" s="141"/>
+      <c r="F294" s="116">
+        <f t="shared" si="49"/>
         <v>203</v>
       </c>
       <c r="G294" s="107">
-        <f>M37</f>
+        <f t="shared" si="50"/>
         <v>186</v>
       </c>
-      <c r="H294" s="142">
-        <f>O196</f>
+      <c r="H294" s="118">
+        <f t="shared" si="51"/>
         <v>6.5071666666666665</v>
       </c>
       <c r="I294" s="77">
-        <f>O37</f>
+        <f t="shared" si="52"/>
         <v>6.32</v>
       </c>
-      <c r="J294" s="144">
-        <f>P196</f>
+      <c r="J294" s="120">
+        <f t="shared" si="53"/>
         <v>15.957666666666666</v>
       </c>
       <c r="K294" s="91">
-        <f>P37</f>
+        <f t="shared" si="54"/>
         <v>21.296666666666667</v>
       </c>
-      <c r="L294" s="146">
-        <f>Q196</f>
+      <c r="L294" s="122">
+        <f t="shared" si="55"/>
         <v>4.5</v>
       </c>
       <c r="M294" s="98">
-        <f>Q37</f>
+        <f t="shared" si="56"/>
         <v>2.6666666666666665</v>
       </c>
-      <c r="N294" s="148">
-        <f>R196</f>
+      <c r="N294" s="124">
+        <f t="shared" si="57"/>
         <v>37.323</v>
       </c>
       <c r="O294" s="78">
-        <f>R37</f>
+        <f t="shared" si="58"/>
         <v>56.792333333333339</v>
       </c>
-      <c r="P294" s="149">
-        <f>S196</f>
+      <c r="P294" s="125">
+        <f t="shared" si="59"/>
         <v>19.600000000000001</v>
       </c>
       <c r="Q294" s="46">
-        <f>S37</f>
+        <f t="shared" si="60"/>
         <v>27.2</v>
       </c>
-      <c r="R294" s="150">
-        <f>T196</f>
+      <c r="R294" s="126">
+        <f t="shared" si="61"/>
         <v>850</v>
       </c>
       <c r="S294" s="100">
-        <f>T37</f>
+        <f t="shared" si="62"/>
         <v>546</v>
       </c>
-      <c r="T294" s="151">
-        <f>U196</f>
+      <c r="T294" s="127">
+        <f t="shared" si="63"/>
         <v>58</v>
       </c>
       <c r="U294" s="47">
-        <f>U37</f>
+        <f t="shared" si="64"/>
         <v>94</v>
       </c>
     </row>
     <row r="295" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B295" s="113">
+      <c r="B295" s="152">
         <v>80</v>
       </c>
-      <c r="C295" s="113"/>
-      <c r="D295" s="113">
-        <f t="shared" si="47"/>
+      <c r="C295" s="152"/>
+      <c r="D295" s="152">
+        <f t="shared" si="65"/>
         <v>4800</v>
       </c>
-      <c r="E295" s="113"/>
-      <c r="F295" s="140">
-        <f>M197</f>
+      <c r="E295" s="152"/>
+      <c r="F295" s="116">
+        <f t="shared" si="49"/>
         <v>239.99999999999997</v>
       </c>
       <c r="G295" s="107">
-        <f>M38</f>
+        <f t="shared" si="50"/>
         <v>227</v>
       </c>
-      <c r="H295" s="142">
-        <f>O197</f>
+      <c r="H295" s="118">
+        <f t="shared" si="51"/>
         <v>10.431166666666666</v>
       </c>
       <c r="I295" s="77">
-        <f>O38</f>
+        <f t="shared" si="52"/>
         <v>10.316833333333333</v>
       </c>
-      <c r="J295" s="144">
-        <f>P197</f>
+      <c r="J295" s="120">
+        <f t="shared" si="53"/>
         <v>26.202200000000001</v>
       </c>
       <c r="K295" s="91">
-        <f>P38</f>
+        <f t="shared" si="54"/>
         <v>31.202999999999999</v>
       </c>
-      <c r="L295" s="146">
-        <f>Q197</f>
+      <c r="L295" s="122">
+        <f t="shared" si="55"/>
         <v>4</v>
       </c>
       <c r="M295" s="98">
-        <f>Q38</f>
+        <f t="shared" si="56"/>
         <v>2.6666666666666665</v>
       </c>
-      <c r="N295" s="148">
-        <f>R197</f>
+      <c r="N295" s="124">
+        <f t="shared" si="57"/>
         <v>59.147199999999998</v>
       </c>
       <c r="O295" s="78">
-        <f>R38</f>
+        <f t="shared" si="58"/>
         <v>85.784499999999994</v>
       </c>
-      <c r="P295" s="149">
-        <f>S197</f>
+      <c r="P295" s="125">
+        <f t="shared" si="59"/>
         <v>18.100000000000001</v>
       </c>
       <c r="Q295" s="46">
-        <f>S38</f>
+        <f t="shared" si="60"/>
         <v>17.8</v>
       </c>
-      <c r="R295" s="150">
-        <f>T197</f>
+      <c r="R295" s="126">
+        <f t="shared" si="61"/>
         <v>871</v>
       </c>
       <c r="S295" s="100">
-        <f>T38</f>
+        <f t="shared" si="62"/>
         <v>858</v>
       </c>
-      <c r="T295" s="151">
-        <f>U197</f>
+      <c r="T295" s="127">
+        <f t="shared" si="63"/>
         <v>57</v>
       </c>
       <c r="U295" s="47">
-        <f>U38</f>
+        <f t="shared" si="64"/>
         <v>123</v>
       </c>
     </row>
     <row r="296" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B296" s="112">
+      <c r="B296" s="141">
         <v>100</v>
       </c>
-      <c r="C296" s="112"/>
-      <c r="D296" s="112">
-        <f t="shared" si="47"/>
+      <c r="C296" s="141"/>
+      <c r="D296" s="141">
+        <f t="shared" si="65"/>
         <v>6000</v>
       </c>
-      <c r="E296" s="112"/>
-      <c r="F296" s="140">
-        <f>M198</f>
+      <c r="E296" s="141"/>
+      <c r="F296" s="116">
+        <f t="shared" si="49"/>
         <v>239.00000000000003</v>
       </c>
       <c r="G296" s="107">
-        <f>M39</f>
+        <f t="shared" si="50"/>
         <v>244</v>
       </c>
-      <c r="H296" s="142">
-        <f>O198</f>
+      <c r="H296" s="118">
+        <f t="shared" si="51"/>
         <v>13.052833333333334</v>
       </c>
       <c r="I296" s="77">
-        <f>O39</f>
+        <f t="shared" si="52"/>
         <v>12.279</v>
       </c>
-      <c r="J296" s="144">
-        <f>P198</f>
+      <c r="J296" s="120">
+        <f t="shared" si="53"/>
         <v>36.466000000000001</v>
       </c>
       <c r="K296" s="91">
-        <f>P39</f>
+        <f t="shared" si="54"/>
         <v>35.7485</v>
       </c>
-      <c r="L296" s="146">
-        <f>Q198</f>
+      <c r="L296" s="122">
+        <f t="shared" si="55"/>
         <v>3.5</v>
       </c>
       <c r="M296" s="98">
-        <f>Q39</f>
+        <f t="shared" si="56"/>
         <v>2.5</v>
       </c>
-      <c r="N296" s="148">
-        <f>R198</f>
+      <c r="N296" s="124">
+        <f t="shared" si="57"/>
         <v>75.525999999999996</v>
       </c>
       <c r="O296" s="78">
-        <f>R39</f>
+        <f t="shared" si="58"/>
         <v>116.95666666666668</v>
       </c>
-      <c r="P296" s="149">
-        <f>S198</f>
+      <c r="P296" s="125">
+        <f t="shared" si="59"/>
         <v>19.2</v>
       </c>
       <c r="Q296" s="46">
-        <f>S39</f>
+        <f t="shared" si="60"/>
         <v>20.3</v>
       </c>
-      <c r="R296" s="150">
-        <f>T198</f>
+      <c r="R296" s="126">
+        <f t="shared" si="61"/>
         <v>905</v>
       </c>
       <c r="S296" s="100">
-        <f>T39</f>
+        <f t="shared" si="62"/>
         <v>915</v>
       </c>
-      <c r="T296" s="151">
-        <f>U198</f>
+      <c r="T296" s="127">
+        <f t="shared" si="63"/>
         <v>57</v>
       </c>
       <c r="U296" s="47">
-        <f>U39</f>
+        <f t="shared" si="64"/>
         <v>146</v>
       </c>
     </row>
     <row r="297" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B297" s="112">
+      <c r="B297" s="141">
         <v>125</v>
       </c>
-      <c r="C297" s="112"/>
-      <c r="D297" s="112">
-        <f t="shared" si="47"/>
+      <c r="C297" s="141"/>
+      <c r="D297" s="141">
+        <f t="shared" si="65"/>
         <v>7500</v>
       </c>
-      <c r="E297" s="112"/>
-      <c r="F297" s="140">
-        <f>M199</f>
+      <c r="E297" s="141"/>
+      <c r="F297" s="116">
+        <f t="shared" si="49"/>
         <v>275</v>
       </c>
       <c r="G297" s="107">
-        <f>M40</f>
+        <f t="shared" si="50"/>
         <v>244</v>
       </c>
-      <c r="H297" s="142">
-        <f>O199</f>
+      <c r="H297" s="118">
+        <f t="shared" si="51"/>
         <v>16.633333333333333</v>
       </c>
       <c r="I297" s="77">
-        <f>O40</f>
+        <f t="shared" si="52"/>
         <v>18.239000000000001</v>
       </c>
-      <c r="J297" s="144">
-        <f>P199</f>
+      <c r="J297" s="120">
+        <f t="shared" si="53"/>
         <v>40.052</v>
       </c>
       <c r="K297" s="91">
-        <f>P40</f>
+        <f t="shared" si="54"/>
         <v>51.365833333333335</v>
       </c>
-      <c r="L297" s="146">
-        <f>Q199</f>
+      <c r="L297" s="122">
+        <f t="shared" si="55"/>
         <v>4.333333333333333</v>
       </c>
       <c r="M297" s="98">
-        <f>Q40</f>
+        <f t="shared" si="56"/>
         <v>2.3333333333333335</v>
       </c>
-      <c r="N297" s="148">
-        <f>R199</f>
+      <c r="N297" s="124">
+        <f t="shared" si="57"/>
         <v>75.853666666666669</v>
       </c>
       <c r="O297" s="78">
-        <f>R40</f>
+        <f t="shared" si="58"/>
         <v>139.45616666666666</v>
       </c>
-      <c r="P297" s="149">
-        <f>S199</f>
+      <c r="P297" s="125">
+        <f t="shared" si="59"/>
         <v>24.3</v>
       </c>
       <c r="Q297" s="46">
-        <f>S40</f>
+        <f t="shared" si="60"/>
         <v>48.7</v>
       </c>
-      <c r="R297" s="150">
-        <f>T199</f>
+      <c r="R297" s="126">
+        <f t="shared" si="61"/>
         <v>954</v>
       </c>
       <c r="S297" s="100">
-        <f>T40</f>
+        <f t="shared" si="62"/>
         <v>958</v>
       </c>
-      <c r="T297" s="151">
-        <f>U199</f>
+      <c r="T297" s="127">
+        <f t="shared" si="63"/>
         <v>58</v>
       </c>
       <c r="U297" s="47">
-        <f>U40</f>
+        <f t="shared" si="64"/>
         <v>170</v>
       </c>
     </row>
     <row r="298" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B298" s="112">
+      <c r="B298" s="141">
         <v>150</v>
       </c>
-      <c r="C298" s="112"/>
-      <c r="D298" s="112">
-        <f t="shared" si="47"/>
+      <c r="C298" s="141"/>
+      <c r="D298" s="141">
+        <f t="shared" si="65"/>
         <v>9000</v>
       </c>
-      <c r="E298" s="112"/>
-      <c r="F298" s="140">
-        <f>M200</f>
+      <c r="E298" s="141"/>
+      <c r="F298" s="116">
+        <f t="shared" si="49"/>
         <v>263.99999999999994</v>
       </c>
       <c r="G298" s="107">
-        <f>M41</f>
+        <f t="shared" si="50"/>
         <v>254</v>
       </c>
-      <c r="H298" s="142">
-        <f>O200</f>
+      <c r="H298" s="118">
+        <f t="shared" si="51"/>
         <v>22.99516666666667</v>
       </c>
       <c r="I298" s="77">
-        <f>O41</f>
+        <f t="shared" si="52"/>
         <v>22.240500000000001</v>
       </c>
-      <c r="J298" s="144">
-        <f>P200</f>
+      <c r="J298" s="120">
+        <f t="shared" si="53"/>
         <v>60.412166666666664</v>
       </c>
       <c r="K298" s="91">
-        <f>P41</f>
+        <f t="shared" si="54"/>
         <v>59.853333333333339</v>
       </c>
-      <c r="L298" s="146">
-        <f>Q200</f>
+      <c r="L298" s="122">
+        <f t="shared" si="55"/>
         <v>4.166666666666667</v>
       </c>
       <c r="M298" s="98">
-        <f>Q41</f>
+        <f t="shared" si="56"/>
         <v>3.1666666666666665</v>
       </c>
-      <c r="N298" s="148">
-        <f>R200</f>
+      <c r="N298" s="124">
+        <f t="shared" si="57"/>
         <v>122.54316666666668</v>
       </c>
       <c r="O298" s="78">
-        <f>R41</f>
+        <f t="shared" si="58"/>
         <v>190.19533333333334</v>
       </c>
-      <c r="P298" s="149">
-        <f>S200</f>
+      <c r="P298" s="125">
+        <f t="shared" si="59"/>
         <v>22.1</v>
       </c>
       <c r="Q298" s="46">
-        <f>S41</f>
+        <f t="shared" si="60"/>
         <v>42.7</v>
       </c>
-      <c r="R298" s="150">
-        <f>T200</f>
+      <c r="R298" s="126">
+        <f t="shared" si="61"/>
         <v>966</v>
       </c>
       <c r="S298" s="100">
-        <f>T41</f>
+        <f t="shared" si="62"/>
         <v>1042</v>
       </c>
-      <c r="T298" s="151">
-        <f>U200</f>
+      <c r="T298" s="127">
+        <f t="shared" si="63"/>
         <v>57</v>
       </c>
       <c r="U298" s="47">
-        <f>U41</f>
+        <f t="shared" si="64"/>
         <v>193</v>
       </c>
     </row>
     <row r="299" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B299" s="112">
+      <c r="B299" s="141">
         <v>200</v>
       </c>
-      <c r="C299" s="112"/>
-      <c r="D299" s="112">
-        <f t="shared" si="47"/>
+      <c r="C299" s="141"/>
+      <c r="D299" s="141">
+        <f t="shared" si="65"/>
         <v>12000</v>
       </c>
-      <c r="E299" s="112"/>
-      <c r="F299" s="140">
-        <f>M201</f>
+      <c r="E299" s="141"/>
+      <c r="F299" s="116">
+        <f t="shared" si="49"/>
         <v>278</v>
       </c>
       <c r="G299" s="107">
-        <f>M42</f>
+        <f t="shared" si="50"/>
         <v>282</v>
       </c>
-      <c r="H299" s="142">
-        <f>O201</f>
+      <c r="H299" s="118">
+        <f t="shared" si="51"/>
         <v>29.481000000000002</v>
       </c>
       <c r="I299" s="77">
-        <f>O42</f>
+        <f t="shared" si="52"/>
         <v>27.329166666666669</v>
       </c>
-      <c r="J299" s="144">
-        <f>P201</f>
+      <c r="J299" s="120">
+        <f t="shared" si="53"/>
         <v>74.897999999999996</v>
       </c>
       <c r="K299" s="91">
-        <f>P42</f>
+        <f t="shared" si="54"/>
         <v>73.948166666666665</v>
       </c>
-      <c r="L299" s="146">
-        <f>Q201</f>
+      <c r="L299" s="122">
+        <f t="shared" si="55"/>
         <v>4</v>
       </c>
       <c r="M299" s="98">
-        <f>Q42</f>
+        <f t="shared" si="56"/>
         <v>2.5</v>
       </c>
-      <c r="N299" s="148">
-        <f>R201</f>
+      <c r="N299" s="124">
+        <f t="shared" si="57"/>
         <v>155.19516666666667</v>
       </c>
       <c r="O299" s="78">
-        <f>R42</f>
+        <f t="shared" si="58"/>
         <v>221.79816666666665</v>
       </c>
-      <c r="P299" s="149">
-        <f>S201</f>
+      <c r="P299" s="125">
+        <f t="shared" si="59"/>
         <v>22.3</v>
       </c>
       <c r="Q299" s="46">
-        <f>S42</f>
+        <f t="shared" si="60"/>
         <v>32.5</v>
       </c>
-      <c r="R299" s="150">
-        <f>T201</f>
+      <c r="R299" s="126">
+        <f t="shared" si="61"/>
         <v>991</v>
       </c>
       <c r="S299" s="100">
-        <f>T42</f>
+        <f t="shared" si="62"/>
         <v>1063</v>
       </c>
-      <c r="T299" s="151">
-        <f>U201</f>
+      <c r="T299" s="127">
+        <f t="shared" si="63"/>
         <v>57</v>
       </c>
       <c r="U299" s="47">
-        <f>U42</f>
+        <f t="shared" si="64"/>
         <v>243</v>
       </c>
     </row>
     <row r="300" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B300" s="112">
+      <c r="B300" s="141">
         <v>300</v>
       </c>
-      <c r="C300" s="112"/>
-      <c r="D300" s="112">
-        <f t="shared" si="47"/>
+      <c r="C300" s="141"/>
+      <c r="D300" s="141">
+        <f t="shared" si="65"/>
         <v>18000</v>
       </c>
-      <c r="E300" s="112"/>
-      <c r="F300" s="140">
-        <f>M202</f>
+      <c r="E300" s="141"/>
+      <c r="F300" s="116">
+        <f t="shared" si="49"/>
         <v>301</v>
       </c>
       <c r="G300" s="107">
-        <f>M43</f>
+        <f t="shared" si="50"/>
         <v>292</v>
       </c>
-      <c r="H300" s="142">
-        <f>O202</f>
+      <c r="H300" s="118">
+        <f t="shared" si="51"/>
         <v>41.900333333333336</v>
       </c>
       <c r="I300" s="77">
-        <f>O43</f>
+        <f t="shared" si="52"/>
         <v>43.045000000000002</v>
       </c>
-      <c r="J300" s="144">
-        <f>P202</f>
+      <c r="J300" s="120">
+        <f t="shared" si="53"/>
         <v>115.10166666666667</v>
       </c>
       <c r="K300" s="91">
-        <f>P43</f>
+        <f t="shared" si="54"/>
         <v>97.530666666666676</v>
       </c>
-      <c r="L300" s="146">
-        <f>Q202</f>
+      <c r="L300" s="122">
+        <f t="shared" si="55"/>
         <v>3.5</v>
       </c>
       <c r="M300" s="98">
-        <f>Q43</f>
+        <f t="shared" si="56"/>
         <v>3.1666666666666665</v>
       </c>
-      <c r="N300" s="148">
-        <f>R202</f>
+      <c r="N300" s="124">
+        <f t="shared" si="57"/>
         <v>227.34216666666666</v>
       </c>
       <c r="O300" s="78">
-        <f>R43</f>
+        <f t="shared" si="58"/>
         <v>299.90216666666669</v>
       </c>
-      <c r="P300" s="149">
-        <f>S202</f>
+      <c r="P300" s="125">
+        <f t="shared" si="59"/>
         <v>26</v>
       </c>
       <c r="Q300" s="46">
-        <f>S43</f>
+        <f t="shared" si="60"/>
         <v>45</v>
       </c>
-      <c r="R300" s="150">
-        <f>T202</f>
+      <c r="R300" s="126">
+        <f t="shared" si="61"/>
         <v>1002</v>
       </c>
       <c r="S300" s="100">
-        <f>T43</f>
+        <f t="shared" si="62"/>
         <v>1117</v>
       </c>
-      <c r="T300" s="151">
-        <f>U202</f>
+      <c r="T300" s="127">
+        <f t="shared" si="63"/>
         <v>57</v>
       </c>
       <c r="U300" s="47">
-        <f>U43</f>
+        <f t="shared" si="64"/>
         <v>342</v>
       </c>
     </row>
     <row r="301" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B301" s="112">
+      <c r="B301" s="141">
         <v>400</v>
       </c>
-      <c r="C301" s="112"/>
-      <c r="D301" s="112">
-        <f t="shared" si="47"/>
+      <c r="C301" s="141"/>
+      <c r="D301" s="141">
+        <f t="shared" si="65"/>
         <v>24000</v>
       </c>
-      <c r="E301" s="112"/>
-      <c r="F301" s="140">
-        <f>M203</f>
+      <c r="E301" s="141"/>
+      <c r="F301" s="116">
+        <f t="shared" si="49"/>
         <v>316</v>
       </c>
       <c r="G301" s="107">
-        <f>M44</f>
-        <v>241.20000000000002</v>
-      </c>
-      <c r="H301" s="142">
-        <f>O203</f>
+        <f t="shared" si="50"/>
+        <v>247.00000000000003</v>
+      </c>
+      <c r="H301" s="118">
+        <f t="shared" si="51"/>
         <v>130.19283333333334</v>
       </c>
       <c r="I301" s="77">
-        <f>O44</f>
-        <v>72.519600000000011</v>
-      </c>
-      <c r="J301" s="144">
-        <f>P203</f>
+        <f t="shared" si="52"/>
+        <v>70.205500000000001</v>
+      </c>
+      <c r="J301" s="120">
+        <f t="shared" si="53"/>
         <v>138.67983333333333</v>
       </c>
       <c r="K301" s="91">
-        <f>P44</f>
-        <v>208.9042</v>
-      </c>
-      <c r="L301" s="146">
-        <f>Q203</f>
+        <f t="shared" si="54"/>
+        <v>201.85599999999999</v>
+      </c>
+      <c r="L301" s="122">
+        <f t="shared" si="55"/>
         <v>3</v>
       </c>
       <c r="M301" s="98">
-        <f>Q44</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="N301" s="148">
-        <f>R203</f>
+        <f t="shared" si="56"/>
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="N301" s="124">
+        <f t="shared" si="57"/>
         <v>275.05816666666669</v>
       </c>
       <c r="O301" s="78">
-        <f>R44</f>
-        <v>629.56500000000005</v>
-      </c>
-      <c r="P301" s="149">
-        <f>S203</f>
+        <f t="shared" si="58"/>
+        <v>622.93299999999999</v>
+      </c>
+      <c r="P301" s="125">
+        <f t="shared" si="59"/>
         <v>28</v>
       </c>
       <c r="Q301" s="46">
-        <f>S44</f>
+        <f t="shared" si="60"/>
         <v>41.5</v>
       </c>
-      <c r="R301" s="150">
-        <f>T203</f>
+      <c r="R301" s="126">
+        <f t="shared" si="61"/>
         <v>980</v>
       </c>
       <c r="S301" s="100">
-        <f>T44</f>
+        <f t="shared" si="62"/>
         <v>1209</v>
       </c>
-      <c r="T301" s="151">
-        <f>U203</f>
+      <c r="T301" s="127">
+        <f t="shared" si="63"/>
         <v>58</v>
       </c>
       <c r="U301" s="47">
-        <f>U44</f>
+        <f t="shared" si="64"/>
         <v>446</v>
       </c>
     </row>
     <row r="302" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B302" s="112">
+      <c r="B302" s="141">
         <v>500</v>
       </c>
-      <c r="C302" s="112"/>
-      <c r="D302" s="112">
-        <f t="shared" si="47"/>
+      <c r="C302" s="141"/>
+      <c r="D302" s="141">
+        <f t="shared" si="65"/>
         <v>30000</v>
       </c>
-      <c r="E302" s="112"/>
-      <c r="F302" s="140">
-        <f>M204</f>
+      <c r="E302" s="141"/>
+      <c r="F302" s="116">
+        <f t="shared" si="49"/>
         <v>302</v>
       </c>
       <c r="G302" s="107">
-        <f>M45</f>
-        <v>235.20000000000002</v>
-      </c>
-      <c r="H302" s="142">
-        <f>O204</f>
+        <f t="shared" si="50"/>
+        <v>238</v>
+      </c>
+      <c r="H302" s="118">
+        <f t="shared" si="51"/>
         <v>70.992666666666665</v>
       </c>
       <c r="I302" s="77">
-        <f>O45</f>
-        <v>91.455399999999997</v>
-      </c>
-      <c r="J302" s="144">
-        <f>P204</f>
+        <f t="shared" si="52"/>
+        <v>89.987166666666667</v>
+      </c>
+      <c r="J302" s="120">
+        <f t="shared" si="53"/>
         <v>199.34766666666667</v>
       </c>
       <c r="K302" s="91">
-        <f>P45</f>
-        <v>252.69759999999999</v>
-      </c>
-      <c r="L302" s="146">
-        <f>Q204</f>
+        <f t="shared" si="54"/>
+        <v>248.31133333333335</v>
+      </c>
+      <c r="L302" s="122">
+        <f t="shared" si="55"/>
         <v>3.1666666666666665</v>
       </c>
       <c r="M302" s="98">
-        <f>Q45</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="N302" s="148">
-        <f>R204</f>
+        <f t="shared" si="56"/>
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="N302" s="124">
+        <f t="shared" si="57"/>
         <v>412.34683333333334</v>
       </c>
       <c r="O302" s="78">
-        <f>R45</f>
-        <v>739.89480000000003</v>
-      </c>
-      <c r="P302" s="149">
-        <f>S204</f>
+        <f t="shared" si="58"/>
+        <v>751.06100000000004</v>
+      </c>
+      <c r="P302" s="125">
+        <f t="shared" si="59"/>
         <v>23</v>
       </c>
       <c r="Q302" s="46">
-        <f>S45</f>
+        <f t="shared" si="60"/>
         <v>45.5</v>
       </c>
-      <c r="R302" s="150">
-        <f>T204</f>
+      <c r="R302" s="126">
+        <f t="shared" si="61"/>
         <v>1003</v>
       </c>
       <c r="S302" s="100">
-        <f>T45</f>
+        <f t="shared" si="62"/>
         <v>1226</v>
       </c>
-      <c r="T302" s="151">
-        <f>U204</f>
+      <c r="T302" s="127">
+        <f t="shared" si="63"/>
         <v>58</v>
       </c>
       <c r="U302" s="47">
-        <f>U45</f>
+        <f t="shared" si="64"/>
         <v>546</v>
       </c>
     </row>
     <row r="303" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B303" s="112">
+      <c r="B303" s="141">
         <v>800</v>
       </c>
-      <c r="C303" s="112"/>
-      <c r="D303" s="112">
-        <f t="shared" si="47"/>
+      <c r="C303" s="141"/>
+      <c r="D303" s="141">
+        <f t="shared" si="65"/>
         <v>48000</v>
       </c>
-      <c r="E303" s="112"/>
-      <c r="F303" s="140">
-        <f>M205</f>
+      <c r="E303" s="141"/>
+      <c r="F303" s="116">
+        <f t="shared" si="49"/>
         <v>276</v>
       </c>
       <c r="G303" s="107">
-        <f>M46</f>
-        <v>298.79999999999995</v>
-      </c>
-      <c r="H303" s="142">
-        <f>O205</f>
+        <f t="shared" si="50"/>
+        <v>297</v>
+      </c>
+      <c r="H303" s="118">
+        <f t="shared" si="51"/>
         <v>130.51374999999999</v>
       </c>
       <c r="I303" s="77">
-        <f>O46</f>
-        <v>113.98099999999999</v>
-      </c>
-      <c r="J303" s="144">
-        <f>P205</f>
+        <f t="shared" si="52"/>
+        <v>113.74083333333333</v>
+      </c>
+      <c r="J303" s="120">
+        <f t="shared" si="53"/>
         <v>301.90499999999997</v>
       </c>
       <c r="K303" s="91">
-        <f>P46</f>
-        <v>357.14320000000004</v>
-      </c>
-      <c r="L303" s="146">
-        <f>Q205</f>
+        <f t="shared" si="54"/>
+        <v>344.70316666666668</v>
+      </c>
+      <c r="L303" s="122">
+        <f t="shared" si="55"/>
         <v>3.5</v>
       </c>
       <c r="M303" s="98">
-        <f>Q46</f>
+        <f t="shared" si="56"/>
         <v>2</v>
       </c>
-      <c r="N303" s="148">
-        <f>R205</f>
+      <c r="N303" s="124">
+        <f t="shared" si="57"/>
         <v>535.66025000000002</v>
       </c>
       <c r="O303" s="78">
-        <f>R46</f>
-        <v>1181.0036</v>
-      </c>
-      <c r="P303" s="149">
-        <f>S205</f>
+        <f t="shared" si="58"/>
+        <v>1208.684</v>
+      </c>
+      <c r="P303" s="125">
+        <f t="shared" si="59"/>
         <v>24</v>
       </c>
       <c r="Q303" s="46">
-        <f>S46</f>
+        <f t="shared" si="60"/>
         <v>38</v>
       </c>
-      <c r="R303" s="150">
-        <f>T205</f>
+      <c r="R303" s="126">
+        <f t="shared" si="61"/>
         <v>1048</v>
       </c>
       <c r="S303" s="100">
-        <f>T46</f>
+        <f t="shared" si="62"/>
         <v>1287</v>
       </c>
-      <c r="T303" s="151">
-        <f>U205</f>
+      <c r="T303" s="127">
+        <f t="shared" si="63"/>
         <v>59</v>
       </c>
       <c r="U303" s="47">
-        <f>U46</f>
+        <f t="shared" si="64"/>
         <v>842</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="225">
-    <mergeCell ref="AA31:AE31"/>
-    <mergeCell ref="AF31:AJ31"/>
-    <mergeCell ref="AK31:AO31"/>
-    <mergeCell ref="AP31:AT31"/>
-    <mergeCell ref="AU31:AY31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="B303:C303"/>
+    <mergeCell ref="D303:E303"/>
+    <mergeCell ref="B300:C300"/>
+    <mergeCell ref="D300:E300"/>
+    <mergeCell ref="B301:C301"/>
+    <mergeCell ref="D301:E301"/>
+    <mergeCell ref="B302:C302"/>
+    <mergeCell ref="D302:E302"/>
+    <mergeCell ref="B297:C297"/>
+    <mergeCell ref="D297:E297"/>
+    <mergeCell ref="B298:C298"/>
+    <mergeCell ref="D298:E298"/>
+    <mergeCell ref="B299:C299"/>
+    <mergeCell ref="D299:E299"/>
+    <mergeCell ref="B294:C294"/>
+    <mergeCell ref="D294:E294"/>
+    <mergeCell ref="B295:C295"/>
+    <mergeCell ref="D295:E295"/>
+    <mergeCell ref="B296:C296"/>
+    <mergeCell ref="D296:E296"/>
+    <mergeCell ref="B252:W253"/>
+    <mergeCell ref="B289:C289"/>
+    <mergeCell ref="D289:E289"/>
+    <mergeCell ref="B290:C290"/>
+    <mergeCell ref="D290:E290"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="D291:E291"/>
+    <mergeCell ref="B292:C292"/>
+    <mergeCell ref="D292:E292"/>
+    <mergeCell ref="B293:C293"/>
+    <mergeCell ref="D293:E293"/>
+    <mergeCell ref="B191:C191"/>
+    <mergeCell ref="E191:F191"/>
+    <mergeCell ref="G191:J191"/>
+    <mergeCell ref="E204:F204"/>
+    <mergeCell ref="G204:J204"/>
+    <mergeCell ref="K204:L204"/>
+    <mergeCell ref="M204:N204"/>
+    <mergeCell ref="E203:F203"/>
+    <mergeCell ref="G203:J203"/>
+    <mergeCell ref="K203:L203"/>
+    <mergeCell ref="M203:N203"/>
+    <mergeCell ref="E202:F202"/>
+    <mergeCell ref="G202:J202"/>
+    <mergeCell ref="K202:L202"/>
+    <mergeCell ref="M202:N202"/>
+    <mergeCell ref="K191:L191"/>
+    <mergeCell ref="M191:N191"/>
+    <mergeCell ref="E192:F192"/>
+    <mergeCell ref="G192:J192"/>
+    <mergeCell ref="K192:L192"/>
+    <mergeCell ref="M192:N192"/>
+    <mergeCell ref="E193:F193"/>
+    <mergeCell ref="G193:J193"/>
+    <mergeCell ref="K193:L193"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="AU190:AY190"/>
+    <mergeCell ref="V190:Z190"/>
+    <mergeCell ref="AA190:AE190"/>
+    <mergeCell ref="AF190:AJ190"/>
+    <mergeCell ref="AK190:AO190"/>
+    <mergeCell ref="AP190:AT190"/>
+    <mergeCell ref="A99:R99"/>
+    <mergeCell ref="A110:R110"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="G122:J122"/>
+    <mergeCell ref="K122:L122"/>
+    <mergeCell ref="M122:N122"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="G123:J123"/>
+    <mergeCell ref="K123:L123"/>
+    <mergeCell ref="M123:N123"/>
+    <mergeCell ref="K127:L127"/>
+    <mergeCell ref="M127:N127"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="G124:J124"/>
+    <mergeCell ref="K124:L124"/>
+    <mergeCell ref="M124:N124"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="G125:J125"/>
+    <mergeCell ref="K125:L125"/>
+    <mergeCell ref="M125:N125"/>
+    <mergeCell ref="B95:W96"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="G130:J130"/>
+    <mergeCell ref="K130:L130"/>
+    <mergeCell ref="M130:N130"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="G128:J128"/>
+    <mergeCell ref="K128:L128"/>
+    <mergeCell ref="M128:N128"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="G129:J129"/>
+    <mergeCell ref="K129:L129"/>
+    <mergeCell ref="M129:N129"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="G126:J126"/>
+    <mergeCell ref="K126:L126"/>
+    <mergeCell ref="M126:N126"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="G127:J127"/>
+    <mergeCell ref="M193:N193"/>
+    <mergeCell ref="E196:F196"/>
+    <mergeCell ref="G196:J196"/>
+    <mergeCell ref="K196:L196"/>
+    <mergeCell ref="M196:N196"/>
+    <mergeCell ref="E197:F197"/>
+    <mergeCell ref="G197:J197"/>
+    <mergeCell ref="K197:L197"/>
+    <mergeCell ref="M197:N197"/>
+    <mergeCell ref="E194:F194"/>
+    <mergeCell ref="G194:J194"/>
+    <mergeCell ref="K194:L194"/>
+    <mergeCell ref="M194:N194"/>
+    <mergeCell ref="E195:F195"/>
+    <mergeCell ref="G195:J195"/>
+    <mergeCell ref="K195:L195"/>
+    <mergeCell ref="M195:N195"/>
+    <mergeCell ref="E201:F201"/>
+    <mergeCell ref="G201:J201"/>
+    <mergeCell ref="K201:L201"/>
+    <mergeCell ref="M201:N201"/>
+    <mergeCell ref="E198:F198"/>
+    <mergeCell ref="G198:J198"/>
+    <mergeCell ref="K198:L198"/>
+    <mergeCell ref="M198:N198"/>
+    <mergeCell ref="E199:F199"/>
+    <mergeCell ref="G199:J199"/>
+    <mergeCell ref="K199:L199"/>
+    <mergeCell ref="M199:N199"/>
     <mergeCell ref="E205:F205"/>
     <mergeCell ref="G205:J205"/>
     <mergeCell ref="K205:L205"/>
@@ -26807,197 +27356,16 @@
     <mergeCell ref="G200:J200"/>
     <mergeCell ref="K200:L200"/>
     <mergeCell ref="M200:N200"/>
-    <mergeCell ref="E201:F201"/>
-    <mergeCell ref="G201:J201"/>
-    <mergeCell ref="K201:L201"/>
-    <mergeCell ref="M201:N201"/>
-    <mergeCell ref="E198:F198"/>
-    <mergeCell ref="G198:J198"/>
-    <mergeCell ref="K198:L198"/>
-    <mergeCell ref="M198:N198"/>
-    <mergeCell ref="E199:F199"/>
-    <mergeCell ref="G199:J199"/>
-    <mergeCell ref="K199:L199"/>
-    <mergeCell ref="M199:N199"/>
-    <mergeCell ref="M193:N193"/>
-    <mergeCell ref="E196:F196"/>
-    <mergeCell ref="G196:J196"/>
-    <mergeCell ref="K196:L196"/>
-    <mergeCell ref="M196:N196"/>
-    <mergeCell ref="E197:F197"/>
-    <mergeCell ref="G197:J197"/>
-    <mergeCell ref="K197:L197"/>
-    <mergeCell ref="M197:N197"/>
-    <mergeCell ref="E194:F194"/>
-    <mergeCell ref="G194:J194"/>
-    <mergeCell ref="K194:L194"/>
-    <mergeCell ref="M194:N194"/>
-    <mergeCell ref="E195:F195"/>
-    <mergeCell ref="G195:J195"/>
-    <mergeCell ref="K195:L195"/>
-    <mergeCell ref="M195:N195"/>
-    <mergeCell ref="B95:W96"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="E130:F130"/>
-    <mergeCell ref="G130:J130"/>
-    <mergeCell ref="K130:L130"/>
-    <mergeCell ref="M130:N130"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="G128:J128"/>
-    <mergeCell ref="K128:L128"/>
-    <mergeCell ref="M128:N128"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="E129:F129"/>
-    <mergeCell ref="G129:J129"/>
-    <mergeCell ref="K129:L129"/>
-    <mergeCell ref="M129:N129"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="G126:J126"/>
-    <mergeCell ref="K126:L126"/>
-    <mergeCell ref="M126:N126"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="E127:F127"/>
-    <mergeCell ref="G127:J127"/>
-    <mergeCell ref="K127:L127"/>
-    <mergeCell ref="M127:N127"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="G124:J124"/>
-    <mergeCell ref="K124:L124"/>
-    <mergeCell ref="M124:N124"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="G125:J125"/>
-    <mergeCell ref="K125:L125"/>
-    <mergeCell ref="M125:N125"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="G122:J122"/>
-    <mergeCell ref="K122:L122"/>
-    <mergeCell ref="M122:N122"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="G123:J123"/>
-    <mergeCell ref="K123:L123"/>
-    <mergeCell ref="M123:N123"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:J45"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="AU190:AY190"/>
-    <mergeCell ref="V190:Z190"/>
-    <mergeCell ref="AA190:AE190"/>
-    <mergeCell ref="AF190:AJ190"/>
-    <mergeCell ref="AK190:AO190"/>
-    <mergeCell ref="AP190:AT190"/>
-    <mergeCell ref="A99:R99"/>
-    <mergeCell ref="A110:R110"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="B191:C191"/>
-    <mergeCell ref="E191:F191"/>
-    <mergeCell ref="G191:J191"/>
-    <mergeCell ref="E204:F204"/>
-    <mergeCell ref="G204:J204"/>
-    <mergeCell ref="K204:L204"/>
-    <mergeCell ref="M204:N204"/>
-    <mergeCell ref="E203:F203"/>
-    <mergeCell ref="G203:J203"/>
-    <mergeCell ref="K203:L203"/>
-    <mergeCell ref="M203:N203"/>
-    <mergeCell ref="E202:F202"/>
-    <mergeCell ref="G202:J202"/>
-    <mergeCell ref="K202:L202"/>
-    <mergeCell ref="M202:N202"/>
-    <mergeCell ref="K191:L191"/>
-    <mergeCell ref="M191:N191"/>
-    <mergeCell ref="E192:F192"/>
-    <mergeCell ref="G192:J192"/>
-    <mergeCell ref="K192:L192"/>
-    <mergeCell ref="M192:N192"/>
-    <mergeCell ref="E193:F193"/>
-    <mergeCell ref="G193:J193"/>
-    <mergeCell ref="K193:L193"/>
-    <mergeCell ref="B294:C294"/>
-    <mergeCell ref="D294:E294"/>
-    <mergeCell ref="B295:C295"/>
-    <mergeCell ref="D295:E295"/>
-    <mergeCell ref="B296:C296"/>
-    <mergeCell ref="D296:E296"/>
-    <mergeCell ref="B252:W253"/>
-    <mergeCell ref="B289:C289"/>
-    <mergeCell ref="D289:E289"/>
-    <mergeCell ref="B290:C290"/>
-    <mergeCell ref="D290:E290"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="D291:E291"/>
-    <mergeCell ref="B292:C292"/>
-    <mergeCell ref="D292:E292"/>
-    <mergeCell ref="B293:C293"/>
-    <mergeCell ref="D293:E293"/>
-    <mergeCell ref="B303:C303"/>
-    <mergeCell ref="D303:E303"/>
-    <mergeCell ref="B300:C300"/>
-    <mergeCell ref="D300:E300"/>
-    <mergeCell ref="B301:C301"/>
-    <mergeCell ref="D301:E301"/>
-    <mergeCell ref="B302:C302"/>
-    <mergeCell ref="D302:E302"/>
-    <mergeCell ref="B297:C297"/>
-    <mergeCell ref="D297:E297"/>
-    <mergeCell ref="B298:C298"/>
-    <mergeCell ref="D298:E298"/>
-    <mergeCell ref="B299:C299"/>
-    <mergeCell ref="D299:E299"/>
+    <mergeCell ref="AA31:AE31"/>
+    <mergeCell ref="AF31:AJ31"/>
+    <mergeCell ref="AK31:AO31"/>
+    <mergeCell ref="AP31:AT31"/>
+    <mergeCell ref="AU31:AY31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A11:A12" location="Sheet3!B251" display="Sheet3!B251"/>

--- a/temp.xlsx
+++ b/temp.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6390" activeTab="1"/>
@@ -144,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F53" authorId="0">
+    <comment ref="F55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -162,7 +162,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="293">
   <si>
     <t>max</t>
   </si>
@@ -617,12 +617,6 @@
     <t>query</t>
   </si>
   <si>
-    <t>&lt;set name="flowScope.guest" value="reservation.guest" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;set name="flowScope.guest.confirmEmail" value="reservation.guest.email" /&gt;</t>
-  </si>
-  <si>
     <t>&lt;on-start&gt;</t>
   </si>
   <si>
@@ -770,9 +764,6 @@
     </r>
   </si>
   <si>
-    <t>&lt;set name="flowScope.guest" value="null" /&gt;</t>
-  </si>
-  <si>
     <t>computeCachedData(reservation)</t>
   </si>
   <si>
@@ -1722,9 +1713,6 @@
     </r>
   </si>
   <si>
-    <t>result="flowScope.user"</t>
-  </si>
-  <si>
     <r>
       <t>&lt;transition to="</t>
     </r>
@@ -4394,67 +4382,1005 @@
     </r>
   </si>
   <si>
-    <t>&lt;transition on="guestReservations" to="guestReservations" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;transition on="adminReservations" to="adminReservations" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;transition on="hutCalendar" to="hutCalendar" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;decision-state id="cancel"&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;if test="reservation_id != null" </t>
-  </si>
-  <si>
-    <t>then="checkCancelEditReservation" else="deleteReservation"</t>
-  </si>
-  <si>
-    <t>&lt;action-state id="deleteReservation"&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    &lt;evaluate expression="reservationAction.cancelReservation(reservation)" /&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    &lt;transition to="finishDeleteReservation" /&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;/action-state&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;decision-state id="finishDeleteReservation"&gt;</t>
+    <r>
+      <t>&lt;decision-state id="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cancel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"&gt;</t>
+    </r>
   </si>
   <si>
-    <t xml:space="preserve">    &lt;if test="currentUser == null" then="hutCalendar" else="checkCancelEditReservation" /&gt;</t>
+    <r>
+      <t>&lt;if test="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reservation_id != null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" </t>
+    </r>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;/decision-state&gt;</t>
+    <r>
+      <t>then="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>checkCancelEditReservation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" else="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>deleteReservation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;decision-state id="checkCancelEditReservation"&gt;</t>
+    <r>
+      <t>&lt;action-state id="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>deleteReservation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"&gt;</t>
+    </r>
   </si>
   <si>
-    <t xml:space="preserve">    &lt;if test="reservationAction.isGuest(currentUser)" then="guestReservations" else="adminReservations" /&gt;</t>
+    <r>
+      <t>&lt;evaluate expression="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reservationAction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.cancelReservation(reservation)" /&gt;</t>
+    </r>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;end-state id="hutCalendar" view="externalRedirect:reservation/calendar?hut_id=#{reservation.hut.id}&amp;amp;header=#{header}" /&gt;</t>
+    <r>
+      <t>&lt;transition to="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>finishDeleteReservation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" /&gt;</t>
+    </r>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;end-state id="guestReservations" view="externalRedirect:guest/reservations" /&gt;</t>
+    <r>
+      <t xml:space="preserve"> &lt;if test=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"currentUser == null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" /&gt;</t>
+    </r>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;end-state id="adminReservations" view="externalRedirect:admin/reservations" /&gt;</t>
+    <r>
+      <t xml:space="preserve"> then="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hutCalendar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" else="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>checkCancelEditReservation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;end-state id="reservationDetail" view="externalRedirect:reservation/detail?id=#{reservation.reservationPublicId}&amp;amp;header=#{header}" /&gt;</t>
+    <r>
+      <t xml:space="preserve">  &lt;decision-state id="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>checkCancelEditReservation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"&gt;</t>
+    </r>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;exception-handler bean="reservationFlowExceptionHandler" /&gt;</t>
+    <r>
+      <t>&lt;if test="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reservationAction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.isGuest(currentUser)"  /&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>then="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>guestReservations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" else="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>adminReservations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;transition on="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>guestReservations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" to="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>guestReservations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" /&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;transition on="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>adminReservations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" to="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>adminReservations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" /&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;transition on="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hutCalendar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" to="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hutCalendar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" /&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;end-state id="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hutCalendar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" view="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>externalRedirect:reservation/calendar?hut_id=#{reservation.hut.id}&amp;amp;header=#{header}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" /&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;end-state id="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>guestReservations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" view="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>externalRedirect:guest/reservations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" /&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;end-state id="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>adminReservations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" view="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>externalRedirect:admin/reservations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" /&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;end-state id="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reservationDetail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" view="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>externalRedirect:reservation/detail?id=#{reservation.reservationPublicId}&amp;amp;header=#{header}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" /&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;exception-handler bean="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reservationFlowExceptionHandler</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" /&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reservationService</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.delete(reservation)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  &lt;decision-state id="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>finishDeleteReservation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;set name="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>flowScope.guest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" value="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" /&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;set name="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>flowScope.guest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" value="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reservation.guest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" /&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;set name="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>flowScope.guest.confirmEmail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" value="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reservation.guest.email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" /&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;transition to=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"accommodation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;transition to="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>accommodation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>result="f</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lowScope.user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;transition to="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>accommodation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" /&gt;</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -5282,11 +6208,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="155429120"/>
-        <c:axId val="155431296"/>
+        <c:axId val="188903424"/>
+        <c:axId val="188904960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="155429120"/>
+        <c:axId val="188903424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5313,7 +6239,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155431296"/>
+        <c:crossAx val="188904960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5321,7 +6247,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="155431296"/>
+        <c:axId val="188904960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5362,7 +6288,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155429120"/>
+        <c:crossAx val="188903424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5600,11 +6526,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="160647808"/>
-        <c:axId val="160666368"/>
+        <c:axId val="208351232"/>
+        <c:axId val="208353152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160647808"/>
+        <c:axId val="208351232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5632,7 +6558,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160666368"/>
+        <c:crossAx val="208353152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5640,7 +6566,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160666368"/>
+        <c:axId val="208353152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5673,7 +6599,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160647808"/>
+        <c:crossAx val="208351232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5916,11 +6842,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="160704384"/>
-        <c:axId val="160710656"/>
+        <c:axId val="208366592"/>
+        <c:axId val="208385152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160704384"/>
+        <c:axId val="208366592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5948,7 +6874,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160710656"/>
+        <c:crossAx val="208385152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5956,7 +6882,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160710656"/>
+        <c:axId val="208385152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5989,7 +6915,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160704384"/>
+        <c:crossAx val="208366592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6226,11 +7152,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="160744576"/>
-        <c:axId val="160746496"/>
+        <c:axId val="208414976"/>
+        <c:axId val="208433536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160744576"/>
+        <c:axId val="208414976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6259,7 +7185,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160746496"/>
+        <c:crossAx val="208433536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6267,7 +7193,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160746496"/>
+        <c:axId val="208433536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6308,7 +7234,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160744576"/>
+        <c:crossAx val="208414976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6997,11 +7923,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="160216960"/>
-        <c:axId val="160227328"/>
+        <c:axId val="208546816"/>
+        <c:axId val="208565376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160216960"/>
+        <c:axId val="208546816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7029,7 +7955,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160227328"/>
+        <c:crossAx val="208565376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7037,7 +7963,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160227328"/>
+        <c:axId val="208565376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7075,7 +8001,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160216960"/>
+        <c:crossAx val="208546816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7553,11 +8479,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="160282880"/>
-        <c:axId val="160289152"/>
+        <c:axId val="208596352"/>
+        <c:axId val="208684544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160282880"/>
+        <c:axId val="208596352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7585,7 +8511,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160289152"/>
+        <c:crossAx val="208684544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7593,7 +8519,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160289152"/>
+        <c:axId val="208684544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7629,7 +8555,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160282880"/>
+        <c:crossAx val="208596352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7861,11 +8787,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="160323072"/>
-        <c:axId val="160324992"/>
+        <c:axId val="208718464"/>
+        <c:axId val="208724736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160323072"/>
+        <c:axId val="208718464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7893,7 +8819,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160324992"/>
+        <c:crossAx val="208724736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7901,7 +8827,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160324992"/>
+        <c:axId val="208724736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7942,7 +8868,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160323072"/>
+        <c:crossAx val="208718464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8180,11 +9106,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="160367360"/>
-        <c:axId val="160369280"/>
+        <c:axId val="208631680"/>
+        <c:axId val="208633856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160367360"/>
+        <c:axId val="208631680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8212,7 +9138,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160369280"/>
+        <c:crossAx val="208633856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8220,7 +9146,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160369280"/>
+        <c:axId val="208633856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8253,7 +9179,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160367360"/>
+        <c:crossAx val="208631680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8496,11 +9422,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="160395264"/>
-        <c:axId val="160397184"/>
+        <c:axId val="208802944"/>
+        <c:axId val="208804864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160395264"/>
+        <c:axId val="208802944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8528,7 +9454,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160397184"/>
+        <c:crossAx val="208804864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8536,7 +9462,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160397184"/>
+        <c:axId val="208804864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8569,7 +9495,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160395264"/>
+        <c:crossAx val="208802944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9101,11 +10027,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="161177984"/>
-        <c:axId val="161179904"/>
+        <c:axId val="208848384"/>
+        <c:axId val="208850304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="161177984"/>
+        <c:axId val="208848384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9134,7 +10060,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161179904"/>
+        <c:crossAx val="208850304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9142,7 +10068,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161179904"/>
+        <c:axId val="208850304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9183,7 +10109,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161177984"/>
+        <c:crossAx val="208848384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9907,11 +10833,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="161297152"/>
-        <c:axId val="161299072"/>
+        <c:axId val="208906112"/>
+        <c:axId val="208936960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="161297152"/>
+        <c:axId val="208906112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9939,7 +10865,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161299072"/>
+        <c:crossAx val="208936960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9947,7 +10873,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161299072"/>
+        <c:axId val="208936960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9985,7 +10911,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161297152"/>
+        <c:crossAx val="208906112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10316,11 +11242,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="155601536"/>
-        <c:axId val="160043776"/>
+        <c:axId val="207843328"/>
+        <c:axId val="207845248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="155601536"/>
+        <c:axId val="207843328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10347,7 +11273,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160043776"/>
+        <c:crossAx val="207845248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10355,7 +11281,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160043776"/>
+        <c:axId val="207845248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10384,7 +11310,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155601536"/>
+        <c:crossAx val="207843328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11006,11 +11932,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="161232000"/>
-        <c:axId val="161233920"/>
+        <c:axId val="208972032"/>
+        <c:axId val="207954304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="161232000"/>
+        <c:axId val="208972032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11038,7 +11964,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161233920"/>
+        <c:crossAx val="207954304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11046,7 +11972,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161233920"/>
+        <c:axId val="207954304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11082,7 +12008,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161232000"/>
+        <c:crossAx val="208972032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11593,11 +12519,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="161499008"/>
-        <c:axId val="161517568"/>
+        <c:axId val="207989760"/>
+        <c:axId val="208008320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="161499008"/>
+        <c:axId val="207989760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11625,7 +12551,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161517568"/>
+        <c:crossAx val="208008320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11633,7 +12559,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161517568"/>
+        <c:axId val="208008320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11669,7 +12595,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161499008"/>
+        <c:crossAx val="207989760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12164,11 +13090,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="161421568"/>
-        <c:axId val="161448320"/>
+        <c:axId val="208031104"/>
+        <c:axId val="208061952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="161421568"/>
+        <c:axId val="208031104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12196,7 +13122,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161448320"/>
+        <c:crossAx val="208061952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12204,7 +13130,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161448320"/>
+        <c:axId val="208061952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12240,7 +13166,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161421568"/>
+        <c:crossAx val="208031104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12719,11 +13645,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="161479296"/>
-        <c:axId val="161559296"/>
+        <c:axId val="208154624"/>
+        <c:axId val="208156544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="161479296"/>
+        <c:axId val="208154624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12751,7 +13677,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161559296"/>
+        <c:crossAx val="208156544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12759,7 +13685,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161559296"/>
+        <c:axId val="208156544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12795,7 +13721,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161479296"/>
+        <c:crossAx val="208154624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13258,11 +14184,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="161577984"/>
-        <c:axId val="161580160"/>
+        <c:axId val="208207232"/>
+        <c:axId val="208083200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="161577984"/>
+        <c:axId val="208207232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13290,7 +14216,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161580160"/>
+        <c:crossAx val="208083200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13298,7 +14224,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161580160"/>
+        <c:axId val="208083200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13334,7 +14260,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161577984"/>
+        <c:crossAx val="208207232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13850,11 +14776,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="161713152"/>
-        <c:axId val="161731712"/>
+        <c:axId val="209400192"/>
+        <c:axId val="209402112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="161713152"/>
+        <c:axId val="209400192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13881,7 +14807,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161731712"/>
+        <c:crossAx val="209402112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13889,7 +14815,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161731712"/>
+        <c:axId val="209402112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13918,7 +14844,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161713152"/>
+        <c:crossAx val="209400192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14081,11 +15007,11 @@
         <c:hiLowLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="160069504"/>
-        <c:axId val="160075776"/>
+        <c:axId val="207870976"/>
+        <c:axId val="207877248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160069504"/>
+        <c:axId val="207870976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14112,7 +15038,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160075776"/>
+        <c:crossAx val="207877248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14120,7 +15046,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160075776"/>
+        <c:axId val="207877248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14149,7 +15075,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160069504"/>
+        <c:crossAx val="207870976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14303,11 +15229,11 @@
         <c:hiLowLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="160126080"/>
-        <c:axId val="160128000"/>
+        <c:axId val="207784192"/>
+        <c:axId val="207786368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160126080"/>
+        <c:axId val="207784192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14334,7 +15260,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160128000"/>
+        <c:crossAx val="207786368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14342,7 +15268,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160128000"/>
+        <c:axId val="207786368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14379,7 +15305,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160126080"/>
+        <c:crossAx val="207784192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14533,11 +15459,11 @@
         <c:hiLowLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="160158080"/>
-        <c:axId val="160160000"/>
+        <c:axId val="207627776"/>
+        <c:axId val="207629696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160158080"/>
+        <c:axId val="207627776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14564,7 +15490,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160160000"/>
+        <c:crossAx val="207629696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14572,7 +15498,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160160000"/>
+        <c:axId val="207629696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14601,7 +15527,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160158080"/>
+        <c:crossAx val="207627776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14845,11 +15771,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="160011776"/>
-        <c:axId val="160013696"/>
+        <c:axId val="207672064"/>
+        <c:axId val="207673984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160011776"/>
+        <c:axId val="207672064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14878,7 +15804,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160013696"/>
+        <c:crossAx val="207673984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14886,7 +15812,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160013696"/>
+        <c:axId val="207673984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14927,7 +15853,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160011776"/>
+        <c:crossAx val="207672064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15600,11 +16526,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="160504064"/>
-        <c:axId val="160530816"/>
+        <c:axId val="207906304"/>
+        <c:axId val="207908224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160504064"/>
+        <c:axId val="207906304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15632,7 +16558,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160530816"/>
+        <c:crossAx val="207908224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15640,7 +16566,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160530816"/>
+        <c:axId val="207908224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15678,7 +16604,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160504064"/>
+        <c:crossAx val="207906304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16317,11 +17243,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="160569984"/>
-        <c:axId val="160592640"/>
+        <c:axId val="208229888"/>
+        <c:axId val="208231808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160569984"/>
+        <c:axId val="208229888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16349,7 +17275,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160592640"/>
+        <c:crossAx val="208231808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16357,7 +17283,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160592640"/>
+        <c:axId val="208231808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16393,7 +17319,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160569984"/>
+        <c:crossAx val="208229888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16633,11 +17559,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="160622080"/>
-        <c:axId val="160624000"/>
+        <c:axId val="208298752"/>
+        <c:axId val="208300672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160622080"/>
+        <c:axId val="208298752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16665,7 +17591,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160624000"/>
+        <c:crossAx val="208300672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16673,7 +17599,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160624000"/>
+        <c:axId val="208300672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16714,7 +17640,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160622080"/>
+        <c:crossAx val="208298752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16765,6 +17691,4779 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>604629</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>16565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>582866</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>91108</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8572499" y="969065"/>
+          <a:ext cx="6107367" cy="3503543"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>563218</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>82826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>554993</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57978</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21402261" y="82826"/>
+          <a:ext cx="6120906" cy="5118652"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>157371</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>149083</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>585360</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>49693</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14867284" y="1863583"/>
+          <a:ext cx="4718380" cy="1615110"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>60054</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>51351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>79121</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>175588</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20786454" y="9957351"/>
+          <a:ext cx="6115067" cy="2410237"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>527600</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>158196</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>174534</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21254000" y="5572125"/>
+          <a:ext cx="5726596" cy="1269909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>296516</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>99804</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>92766</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>102551</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21632516" y="7148304"/>
+          <a:ext cx="4673050" cy="574247"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>142878</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>18224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>316811</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>143522</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20869278" y="8019224"/>
+          <a:ext cx="6269933" cy="1268298"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>196297</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>48869</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>577297</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>14421</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16045897" y="4811369"/>
+          <a:ext cx="4038600" cy="537052"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>31055</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>44310</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>196707</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>183590</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11613455" y="5759310"/>
+          <a:ext cx="3823252" cy="520280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>99391</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>91109</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>256761</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>99393</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14196391" y="3329609"/>
+          <a:ext cx="770283" cy="8284"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>115955</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>173932</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>374270</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>51459</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14825868" y="364432"/>
+          <a:ext cx="5774532" cy="1211027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>64909</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>41413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>82826</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>149083</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="17226474" y="1565413"/>
+          <a:ext cx="17917" cy="298170"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>397565</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>554935</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>173936</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="20623695" y="927652"/>
+          <a:ext cx="770283" cy="8284"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>577297</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>126895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="15" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="20084497" y="5079895"/>
+          <a:ext cx="3042203" cy="15980"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>148672</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>100146</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19655872" y="5243646"/>
+          <a:ext cx="3728" cy="442779"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>196707</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>113950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>113887</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>122589</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Straight Arrow Connector 34"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="17" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="15436707" y="6019450"/>
+          <a:ext cx="526780" cy="8639"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Straight Arrow Connector 35"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13515975" y="4486276"/>
+          <a:ext cx="19050" cy="1647824"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Straight Arrow Connector 46"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="23898225" y="5067300"/>
+          <a:ext cx="1" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>496985</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>39780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>549124</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>95810</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Picture 67"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29148185" y="8040780"/>
+          <a:ext cx="6148139" cy="3866030"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="Straight Arrow Connector 71"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="23936325" y="6648450"/>
+          <a:ext cx="1" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>352428</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>151574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>352429</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>75374</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="Straight Arrow Connector 72"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="23517228" y="7771574"/>
+          <a:ext cx="1" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>193404</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>165651</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>193405</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>89451</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="Straight Arrow Connector 73"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="23967804" y="9309651"/>
+          <a:ext cx="1" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>578769</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="Picture 77"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27870150" y="4914900"/>
+          <a:ext cx="5017419" cy="1790700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="Straight Arrow Connector 78"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="29870400" y="6696075"/>
+          <a:ext cx="9525" cy="552451"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="Straight Arrow Connector 80"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32108775" y="6715126"/>
+          <a:ext cx="38100" cy="1295399"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>361951</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>166989</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="Picture 83"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24155401" y="12563475"/>
+          <a:ext cx="4857750" cy="938514"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>104777</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="Straight Arrow Connector 84"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="24488776" y="12020550"/>
+          <a:ext cx="1" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="Straight Arrow Connector 85"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="28070175" y="6686551"/>
+          <a:ext cx="19050" cy="5838824"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="Straight Arrow Connector 89"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="27031950" y="9410701"/>
+          <a:ext cx="9526" cy="4143374"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>242610</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>189942</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="95" name="Straight Arrow Connector 94"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="19749810" y="1523442"/>
+          <a:ext cx="100290" cy="10211358"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>235322</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>157032</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="Straight Arrow Connector 97"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="20204204" y="11967882"/>
+          <a:ext cx="3417796" cy="150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>11207</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="105" name="Straight Connector 104"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="23610795" y="11945470"/>
+          <a:ext cx="11205" cy="235324"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>526780</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>29500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="112" name="Straight Connector 111"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24288750" y="10363200"/>
+          <a:ext cx="12430" cy="1286800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>363629</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>99882</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="115" name="Straight Arrow Connector 114"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="20480429" y="10372725"/>
+          <a:ext cx="3836896" cy="14157"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="118" name="Straight Arrow Connector 117"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="18211800" y="9410701"/>
+          <a:ext cx="1" cy="733424"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="129" name="Straight Arrow Connector 128"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="17040225" y="5229226"/>
+          <a:ext cx="0" cy="6991349"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>440387</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>94129</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="135" name="Picture 134"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14497050" y="8496300"/>
+          <a:ext cx="6060137" cy="932329"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>58075</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="136" name="Straight Connector 135"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16573500" y="8582025"/>
+          <a:ext cx="9525" cy="620050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="137" name="Straight Arrow Connector 136"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16535400" y="8591550"/>
+          <a:ext cx="4324350" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>74129</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>74967</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="139" name="Picture 138"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15973425" y="5743575"/>
+          <a:ext cx="4217504" cy="617892"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>10451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>469630</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="140" name="Straight Connector 139"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="17040225" y="12202451"/>
+          <a:ext cx="5984605" cy="37174"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>220755</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>118518</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="145" name="Picture 144"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17287875" y="11763375"/>
+          <a:ext cx="3049680" cy="547143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>316651</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>190436</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="147" name="Picture 146"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16602075" y="10153650"/>
+          <a:ext cx="3831376" cy="514286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>2725</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="148" name="Picture 147"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14478000" y="6848475"/>
+          <a:ext cx="3812725" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>49974</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="149" name="Picture 148"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7896225" y="6505575"/>
+          <a:ext cx="6086475" cy="1926399"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>123413</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>36865</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="150" name="Straight Arrow Connector 149"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="13982700" y="7267575"/>
+          <a:ext cx="1990313" cy="8290"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>262972</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>100146</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="153" name="Straight Arrow Connector 152"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14893372" y="6196146"/>
+          <a:ext cx="3728" cy="604704"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Straight Connector 50"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="19497675" y="11858625"/>
+          <a:ext cx="11687176" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="Straight Arrow Connector 59"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="19440525" y="5372100"/>
+          <a:ext cx="66675" cy="6524626"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="Straight Arrow Connector 63"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18030825" y="5238749"/>
+          <a:ext cx="28575" cy="1581151"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>152886</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29727524" y="12496800"/>
+          <a:ext cx="4038601" cy="610086"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="Straight Arrow Connector 69"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="31908750" y="11934825"/>
+          <a:ext cx="1" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="Straight Arrow Connector 70"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="31613475" y="12982575"/>
+          <a:ext cx="1" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>75703</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30232350" y="13487401"/>
+          <a:ext cx="2619375" cy="685302"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>29500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>355330</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>29500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="Straight Connector 75"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25498425" y="13936000"/>
+          <a:ext cx="4727305" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>526781</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>526782</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>32301</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="Straight Arrow Connector 76"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="25520381" y="9467850"/>
+          <a:ext cx="1" cy="4470951"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>70369</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="34680526" y="11553825"/>
+          <a:ext cx="3124200" cy="518044"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>340849</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="34251900" y="12515850"/>
+          <a:ext cx="4493749" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="Straight Arrow Connector 81"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="36175950" y="11982450"/>
+          <a:ext cx="1" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>304802</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>98524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="Straight Arrow Connector 82"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="32613602" y="11909524"/>
+          <a:ext cx="2019298" cy="15777"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>564603</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Picture 44"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31756350" y="14830425"/>
+          <a:ext cx="7213053" cy="1885949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>152402</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="Straight Arrow Connector 86"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="36118801" y="13611225"/>
+          <a:ext cx="1" cy="1209675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>526780</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="Straight Connector 90"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19240500" y="16525875"/>
+          <a:ext cx="14814280" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="Straight Arrow Connector 92"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="19230975" y="5381626"/>
+          <a:ext cx="0" cy="11134724"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>194562</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="96" name="Straight Arrow Connector 95"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="34941762" y="5743575"/>
+          <a:ext cx="34039" cy="10772774"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="99" name="Straight Arrow Connector 98"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="32861250" y="5762625"/>
+          <a:ext cx="2076450" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>145407</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Picture 57"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33461326" y="17211675"/>
+          <a:ext cx="4838700" cy="1221732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>381002</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="103" name="Straight Arrow Connector 102"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="35737801" y="16516350"/>
+          <a:ext cx="1" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>101389</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Picture 60"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29241750" y="17316451"/>
+          <a:ext cx="3609975" cy="882438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>485778</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="106" name="Straight Arrow Connector 105"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="32842200" y="17716500"/>
+          <a:ext cx="561978" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>205750</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Picture 66"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22698075" y="15078075"/>
+          <a:ext cx="6158875" cy="4505325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>561978</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="113" name="Straight Arrow Connector 112"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="28651200" y="17716500"/>
+          <a:ext cx="561978" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>85727</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>135391</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="114" name="Straight Connector 113"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="37271327" y="11991976"/>
+          <a:ext cx="49664" cy="5438774"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>72928</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>72928</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="121" name="Straight Arrow Connector 120"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="32870775" y="17408428"/>
+          <a:ext cx="4486275" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="125" name="Straight Arrow Connector 124"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="18459450" y="13296900"/>
+          <a:ext cx="14697076" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="127" name="Straight Arrow Connector 126"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="18497550" y="12325350"/>
+          <a:ext cx="0" cy="990599"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>171452</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="130" name="Straight Arrow Connector 129"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="33089850" y="12973050"/>
+          <a:ext cx="2" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>172278</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="131" name="Straight Arrow Connector 130"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="28794075" y="6705600"/>
+          <a:ext cx="29403" cy="9305925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>176974</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="132" name="Picture 131"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28536900" y="7324725"/>
+          <a:ext cx="2819400" cy="472249"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>571498</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="133" name="Straight Arrow Connector 132"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="24679275" y="7658100"/>
+          <a:ext cx="3933823" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>193405</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="138" name="Straight Connector 137"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25688925" y="15992475"/>
+          <a:ext cx="3155680" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>83246</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="141" name="Straight Connector 140"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="25686446" y="15982950"/>
+          <a:ext cx="12004" cy="3505200"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>260080</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="142" name="Straight Connector 141"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19230975" y="19450050"/>
+          <a:ext cx="5413105" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>325709</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>335854</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="143" name="Straight Connector 142"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="19223309" y="16487775"/>
+          <a:ext cx="10145" cy="2962275"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>25032</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="122" name="Picture 121"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23012400" y="19859626"/>
+          <a:ext cx="5857875" cy="1310906"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>19052</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="146" name="Straight Arrow Connector 145"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26184225" y="19431000"/>
+          <a:ext cx="0" cy="400052"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>74586</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="126" name="Picture 125"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22964775" y="21402675"/>
+          <a:ext cx="4695825" cy="579411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="151" name="Straight Arrow Connector 150"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25050750" y="20745450"/>
+          <a:ext cx="0" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>130261</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="134" name="Picture 133"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22421850" y="22498050"/>
+          <a:ext cx="5248275" cy="1254211"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="152" name="Straight Arrow Connector 151"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24622125" y="21831300"/>
+          <a:ext cx="0" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>82489</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="144" name="Picture 143"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16535400" y="22488525"/>
+          <a:ext cx="5210175" cy="1215964"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="154" name="Straight Arrow Connector 153"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="21717000" y="23098125"/>
+          <a:ext cx="685800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>154233</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="156" name="Picture 155"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17411700" y="21183601"/>
+          <a:ext cx="4029075" cy="878132"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>528638</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>154233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="157" name="Straight Arrow Connector 156"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="156" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="19426238" y="22061733"/>
+          <a:ext cx="4762" cy="1369767"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -18301,107 +24000,115 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F203"/>
+  <dimension ref="B2:BO207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J198" sqref="J198"/>
+    <sheetView tabSelected="1" topLeftCell="W94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB110" sqref="AB110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:38" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:38" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL12">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="14" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+    <row r="15" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:38" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
-        <v>164</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>161</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
@@ -18411,12 +24118,12 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
@@ -18426,633 +24133,668 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>151</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>152</v>
+        <v>287</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>172</v>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
-        <v>170</v>
+      <c r="B37" t="s">
+        <v>169</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>173</v>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>167</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
-        <v>207</v>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
-        <v>208</v>
+      <c r="B42" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D45" t="s">
-        <v>210</v>
+      <c r="C45" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>211</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="51" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="52" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="53" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="54" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
         <v>175</v>
       </c>
+      <c r="AZ54">
+        <v>333</v>
+      </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
+    <row r="55" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="F55" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="57" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
         <v>176</v>
       </c>
+      <c r="BO57">
+        <v>101</v>
+      </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D51" t="s">
+    <row r="59" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="AO59">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="60" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E52" t="s">
+    <row r="61" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F53" t="s">
-        <v>150</v>
+    <row r="62" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>179</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C54" t="s">
-        <v>212</v>
+    <row r="65" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>180</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C55" t="s">
-        <v>179</v>
+    <row r="66" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>181</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>180</v>
+    <row r="67" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>182</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C59" t="s">
-        <v>181</v>
+    <row r="70" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>197</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D60" t="s">
-        <v>182</v>
+    <row r="71" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>183</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>183</v>
+    <row r="72" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>184</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C64" t="s">
-        <v>184</v>
+    <row r="73" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>185</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C65" t="s">
-        <v>185</v>
+    <row r="74" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
+    <row r="75" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="76" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="79" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="80" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>189</v>
+      </c>
+      <c r="AM80">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="81" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="83" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="BH83">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="84" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="85" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="86" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="87" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="88" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="89" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="92" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="93" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="94" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="95" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C69" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C70" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C71" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C72" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C73" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C74" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
+    <row r="96" spans="2:60" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
         <v>200</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C78" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C79" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C83" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D84" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C85" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D86" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C87" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C91" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C92" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D93" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D94" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E95" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C96" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C97" t="s">
-        <v>214</v>
+      <c r="E97" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
-        <v>217</v>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
+        <v>211</v>
       </c>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C103" t="s">
-        <v>219</v>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D104" t="s">
-        <v>220</v>
+      <c r="B104" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E105" s="106" t="s">
-        <v>221</v>
+      <c r="C105" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C106" t="s">
-        <v>222</v>
+      <c r="D106" t="s">
+        <v>216</v>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
-        <v>223</v>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E107" s="106" t="s">
+        <v>217</v>
       </c>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C110" t="s">
-        <v>181</v>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D111" t="s">
-        <v>224</v>
+      <c r="B111" t="s">
+        <v>219</v>
       </c>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B114" t="s">
-        <v>225</v>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C112" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C115" t="s">
-        <v>226</v>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D116" t="s">
-        <v>227</v>
+      <c r="B116" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C117" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
-        <v>228</v>
+      <c r="C119" t="s">
+        <v>218</v>
       </c>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C120" t="s">
-        <v>229</v>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>224</v>
       </c>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D121" t="s">
-        <v>230</v>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C123" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B124" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C125" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C126" t="s">
-        <v>232</v>
+      <c r="D124" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C127" t="s">
-        <v>234</v>
+      <c r="B127" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C128" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C129" t="s">
-        <v>235</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C130" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C131" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B132" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C133" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D134" t="s">
-        <v>251</v>
+      <c r="C132" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E135" t="s">
-        <v>250</v>
+      <c r="B135" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C136" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C137" t="s">
-        <v>238</v>
+      <c r="D137" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C138" t="s">
-        <v>239</v>
+      <c r="E138" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C140" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B141" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C142" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C143" t="s">
-        <v>242</v>
+      <c r="C141" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C144" t="s">
-        <v>243</v>
+      <c r="B144" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C145" t="s">
-        <v>244</v>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C146" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C147" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B148" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C149" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D150" t="s">
-        <v>247</v>
+      <c r="C148" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E151" t="s">
-        <v>249</v>
+      <c r="B151" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F152" t="s">
-        <v>248</v>
+      <c r="C152" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C153" t="s">
-        <v>252</v>
+      <c r="D153" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C154" t="s">
-        <v>253</v>
+      <c r="E154" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C155" t="s">
-        <v>254</v>
+      <c r="F155" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="156" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C156" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C157" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="158" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B158" t="s">
-        <v>255</v>
+      <c r="C158" t="s">
+        <v>250</v>
       </c>
     </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C159" t="s">
-        <v>256</v>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>251</v>
       </c>
     </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D160" t="s">
-        <v>257</v>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C162" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B163" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C164" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D165" t="s">
-        <v>260</v>
+      <c r="D163" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E166" t="s">
-        <v>262</v>
+      <c r="B166" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="167" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D167" t="s">
-        <v>261</v>
+      <c r="C167" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E168" t="s">
-        <v>263</v>
+      <c r="D168" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="169" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D169" t="s">
-        <v>264</v>
+      <c r="E169" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="170" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D170" t="s">
-        <v>265</v>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E171" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D172" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="173" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B173" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C174" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C175" t="s">
-        <v>268</v>
+      <c r="D173" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="176" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C176" t="s">
-        <v>269</v>
+      <c r="B176" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C177" t="s">
-        <v>270</v>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C178" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C179" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="180" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B180" t="s">
-        <v>271</v>
+      <c r="C180" t="s">
+        <v>278</v>
       </c>
     </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C181" t="s">
-        <v>272</v>
+    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
+        <v>265</v>
       </c>
     </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D182" t="s">
-        <v>273</v>
+    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C184" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="185" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B185" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B186" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B187" t="s">
-        <v>276</v>
+      <c r="D185" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="188" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B189" t="s">
-        <v>278</v>
+      <c r="C189" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="190" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B190" t="s">
-        <v>279</v>
+      <c r="D190" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="191" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B191" t="s">
+      <c r="C191" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B193" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B194" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C195" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D196" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B197" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C199" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D200" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B202" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B203" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B192" t="s">
+    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B204" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B193" t="s">
-        <v>278</v>
+    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B205" t="s">
+        <v>282</v>
       </c>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B194" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B195" t="s">
+    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B207" t="s">
         <v>283</v>
-      </c>
-    </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B196" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B198" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B199" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B200" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B201" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B203" t="s">
-        <v>288</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
